--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A65A55-25A8-4E6C-93A9-F06D803B68B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F68956-584B-465B-A464-F9A695E2C7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="690" windowWidth="23040" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="478">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英文显示效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,25 +92,1613 @@
     <t>请重新输入</t>
   </si>
   <si>
-    <t>g_lang.common.left_click_to_fill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.reinput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全球商店初始化完成</t>
   </si>
   <si>
-    <t>g_lang.ask_boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光标移到这里来启动商店</t>
   </si>
   <si>
     <t>中文显示效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通玩家请忽略</t>
+  </si>
+  <si>
+    <t>你需要拥有服务器管理员权限</t>
+  </si>
+  <si>
+    <t>直接左键点击即可</t>
+  </si>
+  <si>
+    <t>g_lang.ask_boot.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.ask_boot.2</t>
+  </si>
+  <si>
+    <t>g_lang.ask_boot.3</t>
+  </si>
+  <si>
+    <t>g_lang.ask_boot.4</t>
+  </si>
+  <si>
+    <t>g_lang.ask_boot.5</t>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店目前处于停止运行的状态, 可能的原因</t>
+  </si>
+  <si>
+    <t>没有完整执行一轮的所有命令(数据可能已损坏)</t>
+  </si>
+  <si>
+    <t>重装了不同版本的全球商店, 但又换回了正确的版本</t>
+  </si>
+  <si>
+    <t>手动关闭</t>
+  </si>
+  <si>
+    <t>新安装, 还未启动过</t>
+  </si>
+  <si>
+    <t>请排查以上所有的问题</t>
+  </si>
+  <si>
+    <t>然后点击这里启动全球商店</t>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.2</t>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.3</t>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.4</t>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.5</t>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.6</t>
+  </si>
+  <si>
+    <t>g_lang.inputter_1.too_large.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的数太大了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许输入的最大数为:</t>
+  </si>
+  <si>
+    <t>g_lang.inputter_1.too_large.2</t>
+  </si>
+  <si>
+    <t>g_lang.inputter_1.too_large.3</t>
+  </si>
+  <si>
+    <t>你的输入为:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.tip_stop.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来输入自定义语言</t>
+  </si>
+  <si>
+    <t>请输入并执行命令:</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为新的自定义语言</t>
+  </si>
+  <si>
+    <t>不要去掉双引号</t>
+  </si>
+  <si>
+    <t>不要去掉双引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认修改(否则修改无效)</t>
+  </si>
+  <si>
+    <t>光标移到这里来输入自定义金钱记分板</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为新的自定义金钱记分板</t>
+  </si>
+  <si>
+    <t>成功重置货币</t>
+  </si>
+  <si>
+    <t>点击这里来设置货币的面值</t>
+  </si>
+  <si>
+    <t>请将 ? 更改为你想要的面值</t>
+  </si>
+  <si>
+    <t>请先左键选中货币后再启用或禁用</t>
+  </si>
+  <si>
+    <t>这个货币已被禁用, 请先启用再修改其外观物品</t>
+  </si>
+  <si>
+    <t>设置货币的外观物品失败, 因为你的主手是空的</t>
+  </si>
+  <si>
+    <t>请先左键选中货币后再修改货币的外观物品</t>
+  </si>
+  <si>
+    <t>这个货币已被禁用, 请先启用再修改其面值</t>
+  </si>
+  <si>
+    <t>g_lang.cash.tip_input_value.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.tip_input_value.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.disable.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.set_item.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.set_item.empty_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.set_item.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.set_price.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先左键选中货币后再修改面值</t>
+  </si>
+  <si>
+    <t>g_lang.cash.set_price.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.switch.disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已禁用该货币</t>
+  </si>
+  <si>
+    <t>已启用该货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.switch.enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改货币的外观物品</t>
+  </si>
+  <si>
+    <t>g_lang.cash.set_item.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币面值必须为正数, 请重新输入</t>
+  </si>
+  <si>
+    <t>g_lang.cash.set_price.negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.set_price.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置面值成功</t>
+  </si>
+  <si>
+    <t>g_lang.cash.reset_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功设置该物品到回收商店</t>
+  </si>
+  <si>
+    <t>成功设置该物品到出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set_fail.empty_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向回收商店添加物品失败, 因为你的主手是空的, 请重新添加</t>
+  </si>
+  <si>
+    <t>向回收商店添加物品失败, 价格必须是正数, 你的输入为:</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set_fail.negative.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set_fail.negative.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set_fail.empty_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向出售商店添加物品失败, 因为你的主手是空的, 请重新添加</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set_fail.negative.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向出售商店添加物品失败, 价格必须是正数, 你的输入为:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来添加要回收的物品</t>
+  </si>
+  <si>
+    <t>把要添加的回收物品拿在主手</t>
+  </si>
+  <si>
+    <t>执行命令:</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为回收价格</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set.tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set.tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set.tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.set.tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set_fail.negative.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来添加要出售的物品</t>
+  </si>
+  <si>
+    <t>把要添加的出售物品拿在主手</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为出售价格</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set.tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set.tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set.tip.4</t>
+  </si>
+  <si>
+    <t>该回收商店物品不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>再次点击来删除这个回收商店的物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.delete.again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除该回收商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.delete.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.set.tip.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.delete.again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.delete.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该出售商店物品不存在, 已刷新显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击来删除这个出售商店的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除该出售商店物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.tip.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.tip.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.tip.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.tip.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.tip.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.tip.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员全局设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经位于主菜单。要退出商店, 请脱离椅子</t>
+  </si>
+  <si>
+    <t>g_lang.main.back_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进入货币编辑界面, 因为有其他管理员在编辑货币</t>
+  </si>
+  <si>
+    <t>g_lang.cash.admin_enter.multi.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.admin_enter.multi.2</t>
+  </si>
+  <si>
+    <t>同时只允许一个管理员编辑货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进入编辑模式, 因为你不是管理员</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.no_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先点击选择某个选项才能进行后续操作, 你还没有选择</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家个人设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功调整物品信息框前后位置</t>
+  </si>
+  <si>
+    <t>物品信息框前后位置变化的范围是</t>
+  </si>
+  <si>
+    <t>当前你设置的前后位置变化是:</t>
+  </si>
+  <si>
+    <t>之后将无法再往溢出方向继续调整</t>
+  </si>
+  <si>
+    <t>成功调整物品信息框左右位置</t>
+  </si>
+  <si>
+    <t>物品信息框左右位置变化的范围是</t>
+  </si>
+  <si>
+    <t>当前你设置的左右位置变化是:</t>
+  </si>
+  <si>
+    <t>成功调整物品信息框上下位置</t>
+  </si>
+  <si>
+    <t>物品信息框上下位置变化的范围是</t>
+  </si>
+  <si>
+    <t>当前你设置的上下位置变化是:</t>
+  </si>
+  <si>
+    <t>成功调整物品信息框大小</t>
+  </si>
+  <si>
+    <t>物品信息框自定义大小变化的范围是</t>
+  </si>
+  <si>
+    <t>当前你设置的大小变化是:</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.overflow.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.overflow.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.overflow.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.overflow.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.overflow.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.overflow.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.overflow.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.overflow.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.overflow.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.overflow.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.overflow.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.overflow.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来调整物品信息框前后位置</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为你希望的位置变化</t>
+  </si>
+  <si>
+    <t>输入正数使物品信息框向前移动(离你更远)</t>
+  </si>
+  <si>
+    <t>输入负数使物品信息框向后移动(离你更近)</t>
+  </si>
+  <si>
+    <t>推荐的输入范围:</t>
+  </si>
+  <si>
+    <t>你可以多次调整直到合适</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.6</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_d.tip.8</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_h.tip.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来调整物品信息框左右位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将 ? 替换为你希望的位置变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入负数使物品信息框向左移动</t>
+  </si>
+  <si>
+    <t>输入正数使物品信息框向右移动</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos.reset_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功重置物品信息框位置</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.pos_v.tip.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来调整物品信息框上下位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正数使物品信息框向上移动</t>
+  </si>
+  <si>
+    <t>输入负数使物品信息框向下移动</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.reset_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功重置物品信息框大小</t>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_settings.info_frame.size.tip.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来调整物品信息框大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将 ? 替换为你希望的大小变化</t>
+  </si>
+  <si>
+    <t>输入正数使物品信息框变大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入负数使物品信息框变小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转序号成功</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_order.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找 id 成功</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_id.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经在看这个序号的物品, 无需跳转</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_order.already</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你输入的序号太大了, 商店的物品数量仅有</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_order.too_large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你输入的序号是负数, 请输入正数</t>
+  </si>
+  <si>
+    <t>你已经在看这个 id 的物品, 无需跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_id.already</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_order.negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_id.negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.jump_id.no_found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到这个 id 对应的物品</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该玩家商店物品不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>成功购买玩家物品</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.buy.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.buy.money_not_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.buy.money_not_enough.2</t>
+  </si>
+  <si>
+    <t>你只有</t>
+  </si>
+  <si>
+    <t>这个物品是你自己出售的, 已直接取回</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.buy.yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop.buy.yourself_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次左键取回</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop.buy.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店物品</t>
+  </si>
+  <si>
+    <t>成功上架物品</t>
+  </si>
+  <si>
+    <t>玩家商店主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有待领取的收入, 快向其他人卖东西吧~</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.no_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功领取收入:</t>
+  </si>
+  <si>
+    <t>现在你的金钱为:</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.income_success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.income_success.2</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.income.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱太多, 无法领取收入。你的金钱为</t>
+  </si>
+  <si>
+    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
+  </si>
+  <si>
+    <t>否则不能领取收入</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.income.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.income.too_much_money.3</t>
+  </si>
+  <si>
+    <t>你上架和退回的物品达到最大数量</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.store_num_limit.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.store_num_limit.2</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来出售物品</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把要出售的物品拿在主手</t>
+  </si>
+  <si>
+    <t>请在 ? 处填写物品售价</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.view_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的金钱:</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.cool_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架物品有冷却时间, 剩余秒数:</t>
+  </si>
+  <si>
+    <t>上架物品失败, 因为你的主手是空的</t>
+  </si>
+  <si>
+    <t>请将要上架的物品拿在主手, 然后重新尝试</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.empty_hand.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.empty_hand.2</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.negative.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架物品失败, 价格必须是正数, 你的输入为</t>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.negative.2</t>
+  </si>
+  <si>
+    <t>请取走一些物品再卖东西吧~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览历史购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该历史购买记录不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>g_lang.view_bought.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_bought.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录</t>
+  </si>
+  <si>
+    <t>浏览历史出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_sold.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该正在出售物品记录不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>g_lang.view_selling.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取回这个上架的物品</t>
+  </si>
+  <si>
+    <t>g_lang.view_selling.take_back.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_selling.take_back.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该历史出售记录不存在, 已刷新显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_sold.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_return.take_back.tip_click_again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击来取回这个退回的物品</t>
+  </si>
+  <si>
+    <t>g_lang.view_return.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该退回物品不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>g_lang.view_return.take_back.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取回该退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的回收物品数量不足, 需要</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.item_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.item_no_enough.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收成功, 获得金钱:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在你的金钱为</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.success.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱太多, 无法回收物品。你的金钱为</t>
+  </si>
+  <si>
+    <t>全球商店为保证不发生整数溢出, 你的金钱不能超过</t>
+  </si>
+  <si>
+    <t>否则不能回收物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.3</t>
+  </si>
+  <si>
+    <t>回收商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该玩家商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.money_not_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.money_not_enough.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功购买出售商店的物品</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你周围有非法方块(末地门、地狱门、折跃门等), 无法打开商店</t>
+  </si>
+  <si>
+    <t>请与非法方块相隔一定距离再打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_block.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_block.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎使用全球商店</t>
+  </si>
+  <si>
+    <t>周围有玩家在使用商店, 请相距至少 10 格</t>
+  </si>
+  <si>
+    <t>g_lang.open.other_shop_around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店注册玩家数量达到上限, 已停止注册</t>
+  </si>
+  <si>
+    <t>g_lang.open.register_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时使用商店的人数达到上限, 请稍后使用</t>
+  </si>
+  <si>
+    <t>g_lang.open.use_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.already_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经在使用商店了, 不能重复打开</t>
+  </si>
+  <si>
+    <t>当前维度未配置允许打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
+  </si>
+  <si>
+    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要使用请重新打开</t>
+  </si>
+  <si>
+    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
+  </si>
+  <si>
+    <t>数据可能损坏, 已停止运行</t>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.2</t>
+  </si>
+  <si>
+    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
+  </si>
+  <si>
+    <t>g_lang.use.incomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.2</t>
+  </si>
+  <si>
+    <t>g_lang.stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店已停止运行</t>
+  </si>
+  <si>
+    <t>打开商店的方法:</t>
+  </si>
+  <si>
+    <t>左键点击直接执行命令</t>
+  </si>
+  <si>
+    <t>用 1 根木棍合成 1 根木棍</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.3</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.4</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.5</t>
+  </si>
+  <si>
+    <t>可直接左键点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.3</t>
+  </si>
+  <si>
+    <t>已将你设置为商店管理员</t>
+  </si>
+  <si>
+    <t>g_lang.boot.set_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为连锁命令数过低, 当前为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少应为原版默认的 65536</t>
+  </si>
+  <si>
+    <t>光标移到这里来修改连锁命令数</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为连锁命令数</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.5</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.6</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.7</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.8</t>
+  </si>
+  <si>
+    <t>g_lang.boot.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动完成, 欢迎使用</t>
+  </si>
+  <si>
+    <t>商店原先使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功设置现在使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法将商店的语言设置为</t>
+  </si>
+  <si>
+    <t>因为语言函数文件不存在或格式有误</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店原先使用的语言为</t>
+  </si>
+  <si>
+    <t>成功设置现在使用的语言为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义语言, 修改失败</t>
+  </si>
+  <si>
+    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请重新尝试更改</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员全局设置</t>
+  </si>
+  <si>
+    <t>编辑货币</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店移除物品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店移除物品界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店主界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览自己正在出售的物品</t>
+  </si>
+  <si>
+    <t>浏览历史购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览历史出售记录</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退还的物品</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店</t>
+  </si>
+  <si>
+    <t>出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店已关闭, 欢迎再次光临</t>
+  </si>
+  <si>
+    <t>g_lang.open.close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,127 +2030,2106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B363" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="80" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>23</v>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B229" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B230" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B235" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B236" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B254" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B255" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B269" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B284" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B292" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B300" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B301" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B303" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B312" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B317" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B318" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B319" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B321" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B322" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B324" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B335" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B337" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B343" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B351" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B353" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B355" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B357" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B364" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B367" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B387" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B389" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B391" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA8D1F-5561-4F01-B1A5-C902CC8677E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A689B620-3454-4659-A8C7-8B1C8321CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="628">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1162,71 +1162,1016 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>g_lang.recycle_shop.recycle.item_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.item_no_enough.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收成功, 获得金钱:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在你的金钱为</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.success.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱太多, 无法回收物品。你的金钱为</t>
+  </si>
+  <si>
+    <t>否则不能回收物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.3</t>
+  </si>
+  <si>
+    <t>回收商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该玩家商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.money_not_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.money_not_enough.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功购买出售商店的物品</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你周围有非法方块(末地门、地狱门、折跃门等), 无法打开商店</t>
+  </si>
+  <si>
+    <t>请与非法方块相隔一定距离再打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_block.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_block.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎使用全球商店</t>
+  </si>
+  <si>
+    <t>周围有玩家在使用商店, 请相距至少 10 格</t>
+  </si>
+  <si>
+    <t>g_lang.open.other_shop_around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店注册玩家数量达到上限, 已停止注册</t>
+  </si>
+  <si>
+    <t>g_lang.open.register_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时使用商店的人数达到上限, 请稍后使用</t>
+  </si>
+  <si>
+    <t>g_lang.open.use_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.already_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经在使用商店了, 不能重复打开</t>
+  </si>
+  <si>
+    <t>当前维度未配置允许打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
+  </si>
+  <si>
+    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要使用请重新打开</t>
+  </si>
+  <si>
+    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
+  </si>
+  <si>
+    <t>数据可能损坏, 已停止运行</t>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.2</t>
+  </si>
+  <si>
+    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
+  </si>
+  <si>
+    <t>g_lang.use.incomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.2</t>
+  </si>
+  <si>
+    <t>g_lang.stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店已停止运行</t>
+  </si>
+  <si>
+    <t>打开商店的方法:</t>
+  </si>
+  <si>
+    <t>左键点击直接执行命令</t>
+  </si>
+  <si>
+    <t>用 1 根木棍合成 1 根木棍</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.3</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.4</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.5</t>
+  </si>
+  <si>
+    <t>可直接左键点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.3</t>
+  </si>
+  <si>
+    <t>已将你设置为商店管理员</t>
+  </si>
+  <si>
+    <t>g_lang.boot.set_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为连锁命令数过低, 当前为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少应为原版默认的 65536</t>
+  </si>
+  <si>
+    <t>光标移到这里来修改连锁命令数</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为连锁命令数</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.5</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.6</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.7</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.8</t>
+  </si>
+  <si>
+    <t>g_lang.boot.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动完成, 欢迎使用</t>
+  </si>
+  <si>
+    <t>商店原先使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功设置现在使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法将商店的语言设置为</t>
+  </si>
+  <si>
+    <t>因为语言函数文件不存在或格式有误</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店原先使用的语言为</t>
+  </si>
+  <si>
+    <t>成功设置现在使用的语言为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义语言, 修改失败</t>
+  </si>
+  <si>
+    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请重新尝试更改</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员全局设置</t>
+  </si>
+  <si>
+    <t>编辑货币</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店移除物品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店移除物品界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店主界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退还的物品</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店</t>
+  </si>
+  <si>
+    <t>出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店已关闭, 欢迎再次光临</t>
+  </si>
+  <si>
+    <t>g_lang.open.close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash_custom_name</t>
+  </si>
+  <si>
+    <t>全球商店货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.size.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框大小</t>
+  </si>
+  <si>
+    <t>调整物品信息框上下位置</t>
+  </si>
+  <si>
+    <t>恢复物品信息框默认大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复物品信息框默认位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框左右位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框前后位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改使用的金钱记分板</t>
+  </si>
+  <si>
+    <t>修改语言</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.money_sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店主界面</t>
+  </si>
+  <si>
+    <t>进入编辑模式</t>
+  </si>
+  <si>
+    <t>浏览出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店后，输入:</t>
+  </si>
+  <si>
+    <t>跳转到这个序号的物品</t>
+  </si>
+  <si>
+    <t>寻找编号为这个 id 的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
+  </si>
+  <si>
+    <t>浏览玩家商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取收入</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.get_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的金钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.view_my_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向出售商店添加物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从出售商店中去除物品</t>
+  </si>
+  <si>
+    <t>向回收商店添加物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从回收商店中去除物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载全球商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.uninstall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改货币兑换信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置货币物品</t>
+  </si>
+  <si>
+    <t>设置货币价格</t>
+  </si>
+  <si>
+    <t>禁用/启用货币</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个货币已被禁用</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有货币</t>
+  </si>
+  <si>
+    <t>慎重点击!</t>
+  </si>
+  <si>
+    <t>将五种货币的外观物品、</t>
+  </si>
+  <si>
+    <t>面值、开关状态</t>
+  </si>
+  <si>
+    <t>均还原为初始状态</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.4</t>
+  </si>
+  <si>
+    <t>左键点击来将命令填入聊天栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认修改(否则修改无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹除数据失败, 你需要输入</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你使用全球商店数据包</t>
+  </si>
+  <si>
+    <t>你需要按照以下步骤先抹除所有数据</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>改为</t>
+  </si>
+  <si>
+    <t>然后点击这里来停止运行并抹除所有数据</t>
+  </si>
+  <si>
+    <t>抹除数据后, 请立即删除数据包文件</t>
+  </si>
+  <si>
+    <t>然后点击这里重载数据包文件</t>
+  </si>
+  <si>
+    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.6</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.8</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.9</t>
+  </si>
+  <si>
+    <t>上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.dont_remove_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.current_version_is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.modify_until_suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.you_have_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_correct_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_pos_you_want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_and_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.shop_boot_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.too_much_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_confirm_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.recommend_input_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.now_you_have_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.reopen_to_use_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_click_to_take_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_high_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.info_frame_cant_overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.execute_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_fill_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把要上架的物品拿在主手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的物品购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.player_enter.editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>需要的回收物品数量不足, 需要</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.item_no_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.item_no_enough.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收成功, 获得金钱:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在你的金钱为</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.success.2</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.too_much_money.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱太多, 无法回收物品。你的金钱为</t>
-  </si>
-  <si>
-    <t>否则不能回收物品</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.too_much_money.2</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.too_much_money.3</t>
-  </si>
-  <si>
-    <t>回收商店物品</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱不够, 无法购买该玩家商店的物品。需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.money_not_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.money_not_enough.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1234,926 +2179,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功购买出售商店的物品</t>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店物品</t>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你周围有非法方块(末地门、地狱门、折跃门等), 无法打开商店</t>
-  </si>
-  <si>
-    <t>请与非法方块相隔一定距离再打开商店</t>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_block.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_block.2</t>
-  </si>
-  <si>
-    <t>g_lang.open.welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎使用全球商店</t>
-  </si>
-  <si>
-    <t>周围有玩家在使用商店, 请相距至少 10 格</t>
-  </si>
-  <si>
-    <t>g_lang.open.other_shop_around</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店注册玩家数量达到上限, 已停止注册</t>
-  </si>
-  <si>
-    <t>g_lang.open.register_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时使用商店的人数达到上限, 请稍后使用</t>
-  </si>
-  <si>
-    <t>g_lang.open.use_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.already_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已经在使用商店了, 不能重复打开</t>
-  </si>
-  <si>
-    <t>当前维度未配置允许打开商店</t>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_dimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
-  </si>
-  <si>
-    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要使用请重新打开</t>
-  </si>
-  <si>
-    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
-  </si>
-  <si>
-    <t>数据可能损坏, 已停止运行</t>
-  </si>
-  <si>
-    <t>g_lang.error.incomplete_execution.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.incomplete_execution.2</t>
-  </si>
-  <si>
-    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
-  </si>
-  <si>
-    <t>g_lang.use.incomplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.leave_game.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.leave_game.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.use_long_time.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.use_long_time.2</t>
-  </si>
-  <si>
-    <t>g_lang.stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店已停止运行</t>
-  </si>
-  <si>
-    <t>打开商店的方法:</t>
-  </si>
-  <si>
-    <t>左键点击直接执行命令</t>
-  </si>
-  <si>
-    <t>用 1 根木棍合成 1 根木棍</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.2</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.3</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.4</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.5</t>
-  </si>
-  <si>
-    <t>可直接左键点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前安装的版本号为</t>
-  </si>
-  <si>
-    <t>当前安装的版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请更换对应版本的全球商店数据包</t>
-  </si>
-  <si>
-    <t>请更换对应版本的全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.3</t>
-  </si>
-  <si>
-    <t>已将你设置为商店管理员</t>
-  </si>
-  <si>
-    <t>g_lang.boot.set_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动失败</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.4</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为连锁命令数过低, 当前为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少应为原版默认的 65536</t>
-  </si>
-  <si>
-    <t>光标移到这里来修改连锁命令数</t>
-  </si>
-  <si>
-    <t>请将 ? 替换为连锁命令数</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.4</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.5</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.6</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.7</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.8</t>
-  </si>
-  <si>
-    <t>g_lang.boot.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动完成, 欢迎使用</t>
-  </si>
-  <si>
-    <t>商店原先使用的金钱记分板为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功设置现在使用的金钱记分板为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.success.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.fail.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法将商店的语言设置为</t>
-  </si>
-  <si>
-    <t>因为语言函数文件不存在或格式有误</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.fail.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.set_success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店原先使用的语言为</t>
-  </si>
-  <si>
-    <t>成功设置现在使用的语言为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.set_success.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入自定义语言, 修改失败</t>
-  </si>
-  <si>
-    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请重新尝试更改</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员全局设置</t>
-  </si>
-  <si>
-    <t>编辑货币</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收商店移除物品界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店移除物品界面</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店主界面</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_shop_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退还的物品</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收商店</t>
-  </si>
-  <si>
-    <t>出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑模式主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店已关闭, 欢迎再次光临</t>
-  </si>
-  <si>
-    <t>g_lang.open.close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash_custom_name</t>
-  </si>
-  <si>
-    <t>全球商店货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos.reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.size.reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框大小</t>
-  </si>
-  <si>
-    <t>调整物品信息框上下位置</t>
-  </si>
-  <si>
-    <t>恢复物品信息框默认大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复物品信息框默认位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框左右位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框前后位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改使用的金钱记分板</t>
-  </si>
-  <si>
-    <t>修改语言</t>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.money_sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_shop_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店主界面</t>
-  </si>
-  <si>
-    <t>进入编辑模式</t>
-  </si>
-  <si>
-    <t>浏览出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店后，输入:</t>
-  </si>
-  <si>
-    <t>跳转到这个序号的物品</t>
-  </si>
-  <si>
-    <t>寻找编号为这个 id 的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
-  </si>
-  <si>
-    <t>浏览玩家商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取收入</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.get_income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的金钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.view_my_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向出售商店添加物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从出售商店中去除物品</t>
-  </si>
-  <si>
-    <t>向回收商店添加物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从回收商店中去除物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载全球商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.uninstall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改货币兑换信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置货币物品</t>
-  </si>
-  <si>
-    <t>设置货币价格</t>
-  </si>
-  <si>
-    <t>禁用/启用货币</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个货币已被禁用</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置所有货币</t>
-  </si>
-  <si>
-    <t>慎重点击!</t>
-  </si>
-  <si>
-    <t>将五种货币的外观物品、</t>
-  </si>
-  <si>
-    <t>面值、开关状态</t>
-  </si>
-  <si>
-    <t>均还原为初始状态</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.4</t>
+    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.2</t>
+  </si>
+  <si>
+    <t>你的钱太多, 无法存钱。你的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则不能存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.3</t>
+  </si>
+  <si>
+    <t>你的主手不是货币, 请拿着货币再存钱</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.no_hold_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取钱。你剩余的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入成功。你当前的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.draw_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.save_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.save_draw_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.cash_disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱</t>
   </si>
   <si>
     <t>g_lang.control.edit_cash.reset_all.5</t>
-  </si>
-  <si>
-    <t>左键点击来将命令填入聊天栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来确认修改(否则修改无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹除数据失败, 你需要输入</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你使用全球商店数据包</t>
-  </si>
-  <si>
-    <t>你需要按照以下步骤先抹除所有数据</t>
-  </si>
-  <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>改为</t>
-  </si>
-  <si>
-    <t>然后点击这里来停止运行并抹除所有数据</t>
-  </si>
-  <si>
-    <t>抹除数据后, 请立即删除数据包文件</t>
-  </si>
-  <si>
-    <t>然后点击这里重载数据包文件</t>
-  </si>
-  <si>
-    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.2</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.6</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.7</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.8</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.9</t>
-  </si>
-  <si>
-    <t>上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.dont_remove_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.current_version_is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.modify_until_suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.you_have_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_correct_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_pos_you_want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_and_execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.shop_boot_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.too_much_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_confirm_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.recommend_input_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.now_you_have_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.reopen_to_use_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_click_to_take_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_high_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.info_frame_cant_overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.execute_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_fill_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把要上架的物品拿在主手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退回的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的物品购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览回收商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash.save_money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2488,23 +2584,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G484"/>
+  <dimension ref="A1:G505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="B505" sqref="B505"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="72.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2512,7 +2610,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
@@ -2527,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2535,7 +2633,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2546,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2557,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2568,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2579,7 +2677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2590,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2601,12 +2699,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2617,7 +2715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2628,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2639,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2650,7 +2748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2661,12 +2759,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2677,7 +2775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2688,7 +2786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2699,7 +2797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2710,7 +2808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2721,7 +2819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2732,7 +2830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2740,18 +2838,18 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2762,7 +2860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2773,7 +2871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2784,562 +2882,562 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3347,7 +3445,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3358,7 +3456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3366,13 +3464,13 @@
         <v>135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3380,13 +3478,13 @@
         <v>136</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3397,7 +3495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3405,13 +3503,13 @@
         <v>138</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3419,18 +3517,18 @@
         <v>139</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3441,7 +3539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3449,13 +3547,13 @@
         <v>129</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3463,13 +3561,13 @@
         <v>130</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3480,7 +3578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3488,13 +3586,13 @@
         <v>132</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3502,174 +3600,174 @@
         <v>133</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -3677,7 +3775,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -3688,12 +3786,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3704,7 +3802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -3715,12 +3813,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -3731,12 +3829,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -3747,12 +3845,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -3763,12 +3861,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -3779,12 +3877,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -3795,12 +3893,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -3811,12 +3909,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -3827,12 +3925,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -3843,12 +3941,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -3859,12 +3957,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -3875,12 +3973,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -3891,12 +3989,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -3907,7 +4005,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -3918,3076 +4016,3265 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>93</v>
+        <v>610</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>104</v>
+        <v>613</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>325</v>
+        <v>94</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>331</v>
+        <v>104</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>334</v>
+        <v>105</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>335</v>
+        <v>106</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>113</v>
+        <v>327</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>590</v>
+        <v>330</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>121</v>
+        <v>333</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>339</v>
+        <v>95</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>343</v>
+        <v>108</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>345</v>
+        <v>109</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>558</v>
+        <v>123</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>590</v>
+        <v>338</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>561</v>
+        <v>339</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>563</v>
+        <v>342</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>565</v>
+        <v>344</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>588</v>
+        <v>154</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>173</v>
+        <v>556</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>174</v>
+        <v>558</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>175</v>
+        <v>559</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>177</v>
+        <v>562</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>178</v>
+        <v>564</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>243</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>589</v>
+        <v>174</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>590</v>
+        <v>175</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>253</v>
       </c>
-      <c r="B254" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
-      <c r="B256" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>571</v>
+        <v>178</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
-      <c r="B260" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>590</v>
+        <v>181</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
-      <c r="B262" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>265</v>
       </c>
-      <c r="B266" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>575</v>
+        <v>195</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>274</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>226</v>
+        <v>200</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>231</v>
+        <v>205</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>283</v>
       </c>
-      <c r="B284" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>572</v>
+        <v>231</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>572</v>
+        <v>211</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
-      <c r="B309" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
-      <c r="B311" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>573</v>
+        <v>244</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
-      <c r="B321" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
-      <c r="B323" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
-      <c r="B325" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>584</v>
+        <v>257</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>329</v>
       </c>
-      <c r="B330" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B331" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>331</v>
       </c>
-      <c r="B332" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
-      <c r="B336" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>590</v>
+        <v>283</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B340" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>340</v>
       </c>
-      <c r="B341" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B342" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>292</v>
+        <v>274</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B347" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>347</v>
       </c>
-      <c r="B348" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>577</v>
+        <v>281</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B350" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>350</v>
       </c>
-      <c r="B351" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
-      <c r="B357" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
-      <c r="B359" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>374</v>
       </c>
-      <c r="B375" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>437</v>
+        <v>314</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B379" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>379</v>
       </c>
-      <c r="B380" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B381" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>381</v>
       </c>
-      <c r="B382" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B383" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>383</v>
       </c>
-      <c r="B384" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>451</v>
+        <v>319</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>393</v>
       </c>
-      <c r="B394" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>395</v>
       </c>
-      <c r="B396" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>397</v>
       </c>
-      <c r="B398" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>399</v>
       </c>
-      <c r="B400" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>401</v>
       </c>
-      <c r="B402" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>403</v>
       </c>
-      <c r="B404" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>405</v>
       </c>
-      <c r="B406" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>407</v>
       </c>
-      <c r="B408" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>483</v>
+        <v>603</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B428" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>428</v>
       </c>
-      <c r="B429" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>430</v>
       </c>
-      <c r="B431" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>432</v>
       </c>
-      <c r="B433" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>434</v>
       </c>
-      <c r="B435" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>436</v>
       </c>
-      <c r="B437" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>438</v>
       </c>
-      <c r="B439" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>440</v>
       </c>
-      <c r="B441" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>442</v>
       </c>
-      <c r="B443" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>511</v>
+        <v>490</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B461" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B463" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>463</v>
       </c>
-      <c r="B464" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B465" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>465</v>
       </c>
-      <c r="B466" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B467" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>467</v>
       </c>
-      <c r="B468" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B469" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>469</v>
       </c>
-      <c r="B470" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B471" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>471</v>
       </c>
-      <c r="B472" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>473</v>
       </c>
-      <c r="B474" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>475</v>
       </c>
-      <c r="B476" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B477" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>477</v>
       </c>
-      <c r="B478" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B479" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>479</v>
       </c>
-      <c r="B480" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>481</v>
       </c>
-      <c r="B482" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>483</v>
       </c>
-      <c r="B484" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D484" s="3" t="s">
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="2">
+        <v>484</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>486</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="2">
+        <v>488</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="2">
+        <v>490</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="2">
+        <v>492</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="2">
+        <v>494</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>496</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="2">
+        <v>498</v>
+      </c>
+      <c r="B499" s="3" t="s">
         <v>540</v>
       </c>
+      <c r="D499" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="2">
+        <v>499</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="2">
+        <v>500</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="2">
+        <v>501</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>502</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>504</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>625</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G484">
-    <sortCondition ref="A2:A484"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G503">
+    <sortCondition ref="A2:A503"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6997,22 +7284,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83908AC7-88B0-46CE-A57F-97EB7204CF0B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.25" customWidth="1"/>
+    <col min="1" max="1" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -7024,108 +7312,195 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>573</v>
+      <c r="B25" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A689B620-3454-4659-A8C7-8B1C8321CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DFCC7-37A2-4B65-96C5-6601E629A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="632">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1948,308 +1948,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>g_lang.admin_settings.uninstall.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你使用全球商店数据包</t>
+  </si>
+  <si>
+    <t>你需要按照以下步骤先抹除所有数据</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>改为</t>
+  </si>
+  <si>
+    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.8</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.9</t>
+  </si>
+  <si>
+    <t>上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.dont_remove_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.current_version_is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.modify_until_suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.you_have_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_correct_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_pos_you_want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_and_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.shop_boot_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.too_much_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_confirm_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.recommend_input_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.now_you_have_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.reopen_to_use_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_click_to_take_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_high_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.info_frame_cant_overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.execute_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_fill_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把要上架的物品拿在主手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的物品购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.player_enter.editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的回收物品数量不足, 需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.2</t>
+  </si>
+  <si>
+    <t>你的钱太多, 无法存钱。你的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则不能存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.3</t>
+  </si>
+  <si>
+    <t>你的主手不是货币, 请拿着货币再存钱</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.no_hold_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取钱。你剩余的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入成功。你当前的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.draw_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.save_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.save_draw_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.cash_disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash.save_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.success</t>
+  </si>
+  <si>
     <t>抹除数据失败, 你需要输入</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你使用全球商店数据包</t>
-  </si>
-  <si>
-    <t>你需要按照以下步骤先抹除所有数据</t>
-  </si>
-  <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>改为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.10</t>
+  </si>
+  <si>
+    <t>然后点击这里来禁用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>然后点击这里来停止运行并抹除所有数据</t>
-  </si>
-  <si>
-    <t>抹除数据后, 请立即删除数据包文件</t>
-  </si>
-  <si>
-    <t>然后点击这里重载数据包文件</t>
-  </si>
-  <si>
-    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.2</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.6</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.7</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.8</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.9</t>
-  </si>
-  <si>
-    <t>上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.dont_remove_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.current_version_is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.modify_until_suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.you_have_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_correct_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_pos_you_want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_and_execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.shop_boot_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.too_much_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_confirm_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.recommend_input_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.now_you_have_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.reopen_to_use_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_click_to_take_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_high_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.info_frame_cant_overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.execute_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_fill_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把要上架的物品拿在主手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退回的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的物品购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览回收商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.player_enter.editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的回收物品数量不足, 需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你只有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.2</t>
-  </si>
-  <si>
-    <t>你的钱太多, 无法存钱。你的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则不能存钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.2</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.3</t>
-  </si>
-  <si>
-    <t>你的主手不是货币, 请拿着货币再存钱</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.no_hold_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取钱。你剩余的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入成功。你当前的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.draw_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.save_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.save_draw_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.cash_disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash.save_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后请立即删除数据包文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里重载其他数据包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G505"/>
+  <dimension ref="A1:G508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="B505" sqref="B505"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2610,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
@@ -2838,7 +2857,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -3045,7 +3064,7 @@
         <v>371</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>363</v>
@@ -3102,7 +3121,7 @@
         <v>373</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>363</v>
@@ -3148,7 +3167,7 @@
         <v>380</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>102</v>
@@ -3200,7 +3219,7 @@
         <v>390</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>385</v>
@@ -3214,7 +3233,7 @@
         <v>391</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>387</v>
@@ -3228,7 +3247,7 @@
         <v>392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>389</v>
@@ -3263,7 +3282,7 @@
         <v>396</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>395</v>
@@ -3277,7 +3296,7 @@
         <v>397</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>385</v>
@@ -3291,7 +3310,7 @@
         <v>398</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>386</v>
@@ -3305,7 +3324,7 @@
         <v>399</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>388</v>
@@ -3324,7 +3343,7 @@
         <v>400</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>401</v>
@@ -3371,7 +3390,7 @@
         <v>409</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>102</v>
@@ -3385,7 +3404,7 @@
         <v>410</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3410,7 +3429,7 @@
         <v>412</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>35</v>
@@ -3464,7 +3483,7 @@
         <v>135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>49</v>
@@ -3478,7 +3497,7 @@
         <v>136</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -3503,7 +3522,7 @@
         <v>138</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>52</v>
@@ -3517,7 +3536,7 @@
         <v>139</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>53</v>
@@ -3547,7 +3566,7 @@
         <v>129</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>49</v>
@@ -3561,7 +3580,7 @@
         <v>130</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -3586,7 +3605,7 @@
         <v>132</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>51</v>
@@ -3600,7 +3619,7 @@
         <v>133</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>545</v>
@@ -3756,10 +3775,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3772,61 +3791,61 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>141</v>
+        <v>623</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
+      <c r="B119" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
+      <c r="B122" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3839,10 +3858,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,10 +3874,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3871,10 +3890,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,10 +3906,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3903,10 +3922,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,10 +3938,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3935,10 +3954,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3951,10 +3970,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,10 +3986,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3983,10 +4002,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3999,37 +4018,37 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
+      <c r="B147" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>602</v>
+        <v>148</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>601</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4042,13 +4061,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4061,37 +4077,40 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>608</v>
+        <v>533</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>607</v>
-      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
+      <c r="B154" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4104,48 +4123,48 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
+      <c r="B160" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4158,10 +4177,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,34 +4193,34 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>142</v>
+        <v>616</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
+      <c r="B167" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,65 +4233,56 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
+      <c r="B172" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>587</v>
+        <v>99</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -4280,13 +4290,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>588</v>
+        <v>104</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,26 +4301,38 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
+      <c r="B178" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -4326,10 +4345,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>118</v>
+        <v>328</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -4342,10 +4361,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,111 +4377,111 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>606</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>607</v>
-      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
+      <c r="B187" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>325</v>
+        <v>602</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
+      <c r="B190" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
+      <c r="B194" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4475,34 +4494,34 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>321</v>
+        <v>336</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
+      <c r="B199" s="3" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -4515,65 +4534,56 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
+      <c r="B204" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>587</v>
+        <v>109</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -4581,13 +4591,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>588</v>
+        <v>113</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -4595,26 +4602,38 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
+      <c r="B210" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>329</v>
+        <v>121</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,10 +4646,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,10 +4662,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -4659,40 +4678,40 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>623</v>
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
+      <c r="B219" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,10 +4724,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4721,58 +4740,58 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>143</v>
+        <v>344</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
+      <c r="B226" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
+      <c r="B229" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -4785,35 +4804,26 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>556</v>
+        <v>154</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>548</v>
+        <v>153</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>15</v>
+        <v>547</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -4821,10 +4831,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -4832,10 +4842,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>560</v>
+        <v>554</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>551</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,10 +4856,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -4854,10 +4867,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -4865,2416 +4878,2446 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>239</v>
-      </c>
       <c r="B240" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>155</v>
+        <v>559</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>169</v>
+        <v>626</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>156</v>
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>246</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>250</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>252</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>256</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>258</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>262</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>264</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>268</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>573</v>
+        <v>185</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>569</v>
+        <v>195</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>277</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>573</v>
+        <v>199</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>569</v>
+        <v>203</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>286</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>573</v>
+        <v>213</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>569</v>
+        <v>217</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>295</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>544</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>237</v>
+        <v>544</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>569</v>
+        <v>230</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>211</v>
+        <v>232</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>304</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>306</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>311</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>313</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>315</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>317</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>319</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>321</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>323</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>325</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>327</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>571</v>
+        <v>257</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>332</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>334</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>336</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>341</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>582</v>
+        <v>270</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>577</v>
+        <v>272</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>346</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>280</v>
+        <v>572</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>590</v>
+        <v>301</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>353</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>588</v>
+        <v>284</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>15</v>
+        <v>563</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>285</v>
+        <v>585</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>359</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>361</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>575</v>
+        <v>297</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>598</v>
+        <v>298</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>305</v>
+        <v>593</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>372</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>599</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>313</v>
+        <v>594</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>377</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>600</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>309</v>
+        <v>595</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>382</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>264</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>384</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>592</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>318</v>
+        <v>587</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>389</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>390</v>
+        <v>389</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>391</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>396</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>398</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>400</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>402</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>404</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>406</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>597</v>
+        <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>408</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>596</v>
+        <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>410</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>591</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>412</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>414</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>416</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>418</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>460</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>420</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>421</v>
+        <v>420</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>422</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>604</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>424</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>426</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>430</v>
+        <v>429</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>431</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>432</v>
+        <v>431</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>433</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>435</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>436</v>
+        <v>435</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>437</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>439</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>441</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>443</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>444</v>
+        <v>443</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>445</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>447</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>449</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>451</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>453</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>595</v>
+        <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>455</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>457</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>459</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>461</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>466</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>468</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>470</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>592</v>
+        <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>472</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>474</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>593</v>
+        <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>475</v>
+        <v>474</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>476</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>477</v>
+        <v>476</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>478</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>479</v>
+        <v>478</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>480</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>481</v>
+        <v>480</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>482</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>483</v>
+        <v>482</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>484</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>485</v>
+        <v>484</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>486</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>487</v>
+        <v>486</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>488</v>
-      </c>
-      <c r="B489" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>489</v>
+        <v>488</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>490</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>492</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>493</v>
+        <v>492</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>494</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>495</v>
+        <v>494</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>496</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>497</v>
+        <v>496</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>498</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>500</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>626</v>
+        <v>541</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
+        <v>503</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="2">
         <v>504</v>
       </c>
-      <c r="B505" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>625</v>
+      <c r="B506" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="2">
+        <v>506</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G503">
-    <sortCondition ref="A2:A503"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G506">
+    <sortCondition ref="A2:A506"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7300,7 +7343,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -7313,7 +7356,7 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>533</v>
@@ -7321,7 +7364,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -7329,7 +7372,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -7337,7 +7380,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -7345,7 +7388,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>387</v>
@@ -7353,7 +7396,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -7361,7 +7404,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>102</v>
@@ -7369,7 +7412,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>385</v>
@@ -7377,7 +7420,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>159</v>
@@ -7385,7 +7428,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -7393,7 +7436,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>247</v>
@@ -7401,7 +7444,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>191</v>
@@ -7409,7 +7452,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>326</v>
@@ -7417,7 +7460,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>272</v>
@@ -7425,7 +7468,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>264</v>
@@ -7433,7 +7476,7 @@
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -7441,7 +7484,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>190</v>
@@ -7449,7 +7492,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>363</v>
@@ -7457,7 +7500,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>389</v>
@@ -7465,7 +7508,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>187</v>
@@ -7473,15 +7516,15 @@
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>395</v>
@@ -7489,18 +7532,18 @@
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94DFCC7-37A2-4B65-96C5-6601E629A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1673EA9-3BEB-42FC-824B-7A14F6735806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15330" yWindow="315" windowWidth="12570" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="634">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2269,6 +2269,13 @@
   </si>
   <si>
     <t>然后点击这里重载其他数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.cash.force_back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2603,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G508"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4199,3125 +4206,3133 @@
         <v>614</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
-    </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
       <c r="B167" s="3" t="s">
-        <v>142</v>
+        <v>633</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>167</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>172</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>175</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>582</v>
+        <v>99</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>118</v>
+        <v>328</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>601</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>187</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>602</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>325</v>
+        <v>602</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>190</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>193</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>572</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>321</v>
+        <v>336</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>199</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>204</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>207</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>582</v>
+        <v>109</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>583</v>
+        <v>113</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>329</v>
+        <v>121</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>618</v>
+        <v>126</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>219</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>143</v>
+        <v>344</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>226</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>229</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>552</v>
+        <v>154</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>547</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>234</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>548</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>15</v>
+        <v>547</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>550</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>628</v>
+        <v>555</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>237</v>
+      </c>
       <c r="B240" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>240</v>
-      </c>
       <c r="B242" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>626</v>
+        <v>558</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>551</v>
+        <v>630</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>155</v>
+        <v>626</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>244</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>247</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>581</v>
+        <v>170</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>253</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>581</v>
+        <v>174</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>259</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>581</v>
+        <v>178</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>265</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>581</v>
+        <v>182</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>269</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>583</v>
+        <v>185</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>576</v>
+        <v>195</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>564</v>
+        <v>196</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>278</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>583</v>
+        <v>199</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>576</v>
+        <v>203</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>564</v>
+        <v>204</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>285</v>
+        <v>283</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>287</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>102</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>583</v>
+        <v>213</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>576</v>
+        <v>217</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>564</v>
+        <v>218</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>294</v>
+        <v>292</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>296</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>583</v>
+        <v>226</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>544</v>
+        <v>234</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>236</v>
+        <v>544</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>576</v>
+        <v>230</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>564</v>
+        <v>231</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>309</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>565</v>
+        <v>246</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>565</v>
+        <v>249</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>330</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>579</v>
+        <v>262</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>339</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>344</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>347</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>572</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>351</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>352</v>
+        <v>350</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>563</v>
+        <v>301</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>354</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>585</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>102</v>
+        <v>563</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>583</v>
+        <v>286</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>15</v>
+        <v>585</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>285</v>
+        <v>102</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>358</v>
+        <v>356</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>364</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>365</v>
+        <v>363</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>367</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>368</v>
+        <v>366</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>593</v>
+        <v>300</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>370</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>371</v>
+        <v>369</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>594</v>
+        <v>304</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>375</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>595</v>
+        <v>314</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>380</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>381</v>
+        <v>379</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>579</v>
+        <v>310</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>587</v>
+        <v>311</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>387</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>435</v>
+        <v>319</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>394</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>395</v>
+        <v>393</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>592</v>
+        <v>448</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>454</v>
+        <v>586</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>617</v>
+        <v>462</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>599</v>
+        <v>461</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>464</v>
+        <v>598</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>463</v>
+        <v>599</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>429</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>617</v>
+        <v>489</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>493</v>
+        <v>590</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>462</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>465</v>
+        <v>463</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>587</v>
+        <v>508</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>619</v>
+        <v>532</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>501</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>621</v>
+        <v>542</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
+        <v>504</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
         <v>506</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B510" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D508" s="3" t="s">
+      <c r="D510" s="3" t="s">
         <v>620</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G506">
-    <sortCondition ref="A2:A506"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G508">
+    <sortCondition ref="A2:A508"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1673EA9-3BEB-42FC-824B-7A14F6735806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6D4D2-A931-40CF-A50E-6DBEBAA95DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="315" windowWidth="12570" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="649">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2276,6 +2276,66 @@
   </si>
   <si>
     <t>g_lang.cash.force_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.recycle_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.return_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2610,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="D505" sqref="D505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7328,6 +7388,67 @@
       </c>
       <c r="D510" s="3" t="s">
         <v>620</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B512" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B513" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B514" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B515" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B516" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B517" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B518" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B519" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB6D4D2-A931-40CF-A50E-6DBEBAA95DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA57263-C03E-430F-ABC3-FF04985214D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="654">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,10 +565,6 @@
     <t>需要先点击选择某个选项才能进行后续操作, 你还没有选择</t>
   </si>
   <si>
-    <t>g_lang.edit_main.no_select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家个人设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,1261 +1077,1286 @@
     <t>上架物品失败, 价格必须是正数, 你的输入为</t>
   </si>
   <si>
+    <t>请取走一些物品再卖东西吧~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该历史购买记录不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>g_lang.view_bought.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_bought.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录</t>
+  </si>
+  <si>
+    <t>g_lang.view_sold.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该正在出售物品记录不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>g_lang.view_selling.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取回这个上架的物品</t>
+  </si>
+  <si>
+    <t>g_lang.view_selling.take_back.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_selling.take_back.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该历史出售记录不存在, 已刷新显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_sold.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.view_return.take_back.tip_click_again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击来取回这个退回的物品</t>
+  </si>
+  <si>
+    <t>g_lang.view_return.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该退回物品不存在, 已刷新显示</t>
+  </si>
+  <si>
+    <t>g_lang.view_return.take_back.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功取回该退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.item_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.item_no_enough.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收成功, 获得金钱:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在你的金钱为</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.success.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.no_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱太多, 无法回收物品。你的金钱为</t>
+  </si>
+  <si>
+    <t>否则不能回收物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.too_much_money.3</t>
+  </si>
+  <si>
+    <t>回收商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.recycle_shop.recycle.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该玩家商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.money_not_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.money_not_enough.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功购买出售商店的物品</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店物品</t>
+  </si>
+  <si>
+    <t>g_lang.sell_shop.buy.tellraw_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你周围有非法方块(末地门、地狱门、折跃门等), 无法打开商店</t>
+  </si>
+  <si>
+    <t>请与非法方块相隔一定距离再打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_block.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_block.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.welcome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎使用全球商店</t>
+  </si>
+  <si>
+    <t>周围有玩家在使用商店, 请相距至少 10 格</t>
+  </si>
+  <si>
+    <t>g_lang.open.other_shop_around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店注册玩家数量达到上限, 已停止注册</t>
+  </si>
+  <si>
+    <t>g_lang.open.register_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时使用商店的人数达到上限, 请稍后使用</t>
+  </si>
+  <si>
+    <t>g_lang.open.use_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.already_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经在使用商店了, 不能重复打开</t>
+  </si>
+  <si>
+    <t>当前维度未配置允许打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
+  </si>
+  <si>
+    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要使用请重新打开</t>
+  </si>
+  <si>
+    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
+  </si>
+  <si>
+    <t>数据可能损坏, 已停止运行</t>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.2</t>
+  </si>
+  <si>
+    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
+  </si>
+  <si>
+    <t>g_lang.use.incomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.2</t>
+  </si>
+  <si>
+    <t>g_lang.stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店已停止运行</t>
+  </si>
+  <si>
+    <t>打开商店的方法:</t>
+  </si>
+  <si>
+    <t>左键点击直接执行命令</t>
+  </si>
+  <si>
+    <t>用 1 根木棍合成 1 根木棍</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.3</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.4</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.5</t>
+  </si>
+  <si>
+    <t>可直接左键点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.3</t>
+  </si>
+  <si>
+    <t>已将你设置为商店管理员</t>
+  </si>
+  <si>
+    <t>g_lang.boot.set_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为连锁命令数过低, 当前为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少应为原版默认的 65536</t>
+  </si>
+  <si>
+    <t>光标移到这里来修改连锁命令数</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为连锁命令数</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.5</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.6</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.7</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.8</t>
+  </si>
+  <si>
+    <t>g_lang.boot.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动完成, 欢迎使用</t>
+  </si>
+  <si>
+    <t>商店原先使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功设置现在使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法将商店的语言设置为</t>
+  </si>
+  <si>
+    <t>因为语言函数文件不存在或格式有误</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店原先使用的语言为</t>
+  </si>
+  <si>
+    <t>成功设置现在使用的语言为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义语言, 修改失败</t>
+  </si>
+  <si>
+    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请重新尝试更改</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员全局设置</t>
+  </si>
+  <si>
+    <t>编辑货币</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店移除物品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店移除物品界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店主界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退还的物品</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店</t>
+  </si>
+  <si>
+    <t>出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店已关闭, 欢迎再次光临</t>
+  </si>
+  <si>
+    <t>g_lang.open.close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash_custom_name</t>
+  </si>
+  <si>
+    <t>全球商店货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.size.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框大小</t>
+  </si>
+  <si>
+    <t>调整物品信息框上下位置</t>
+  </si>
+  <si>
+    <t>恢复物品信息框默认大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复物品信息框默认位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框左右位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框前后位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改使用的金钱记分板</t>
+  </si>
+  <si>
+    <t>修改语言</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.money_sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店主界面</t>
+  </si>
+  <si>
+    <t>进入编辑模式</t>
+  </si>
+  <si>
+    <t>浏览出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店后，输入:</t>
+  </si>
+  <si>
+    <t>跳转到这个序号的物品</t>
+  </si>
+  <si>
+    <t>寻找编号为这个 id 的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
+  </si>
+  <si>
+    <t>浏览玩家商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取收入</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.get_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的金钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.view_my_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向出售商店添加物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从出售商店中去除物品</t>
+  </si>
+  <si>
+    <t>向回收商店添加物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从回收商店中去除物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载全球商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.uninstall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改货币兑换信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置货币物品</t>
+  </si>
+  <si>
+    <t>设置货币价格</t>
+  </si>
+  <si>
+    <t>禁用/启用货币</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个货币已被禁用</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有货币</t>
+  </si>
+  <si>
+    <t>慎重点击!</t>
+  </si>
+  <si>
+    <t>将五种货币的外观物品、</t>
+  </si>
+  <si>
+    <t>面值、开关状态</t>
+  </si>
+  <si>
+    <t>均还原为初始状态</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.4</t>
+  </si>
+  <si>
+    <t>左键点击来将命令填入聊天栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认修改(否则修改无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你使用全球商店数据包</t>
+  </si>
+  <si>
+    <t>你需要按照以下步骤先抹除所有数据</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>改为</t>
+  </si>
+  <si>
+    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.8</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.9</t>
+  </si>
+  <si>
+    <t>上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.dont_remove_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.current_version_is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.modify_until_suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.you_have_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_correct_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_pos_you_want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_and_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.shop_boot_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.too_much_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_confirm_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.recommend_input_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.now_you_have_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.reopen_to_use_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_click_to_take_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_high_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.info_frame_cant_overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.execute_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_fill_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把要上架的物品拿在主手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的物品购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.player_enter.editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的回收物品数量不足, 需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.2</t>
+  </si>
+  <si>
+    <t>你的钱太多, 无法存钱。你的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则不能存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.3</t>
+  </si>
+  <si>
+    <t>你的主手不是货币, 请拿着货币再存钱</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.no_hold_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取钱。你剩余的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入成功。你当前的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.draw_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.save_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.save_draw_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.cash_disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash.save_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.success</t>
+  </si>
+  <si>
+    <t>抹除数据失败, 你需要输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.10</t>
+  </si>
+  <si>
+    <t>然后点击这里来禁用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来停止运行并抹除所有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后请立即删除数据包文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里重载其他数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.cash.force_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.recycle_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.return_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.cash_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>g_lang.player_shop_main.sell.negative.2</t>
-  </si>
-  <si>
-    <t>请取走一些物品再卖东西吧~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该历史购买记录不存在, 已刷新显示</t>
-  </si>
-  <si>
-    <t>g_lang.view_bought.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.view_bought.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买记录</t>
-  </si>
-  <si>
-    <t>g_lang.view_sold.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该正在出售物品记录不存在, 已刷新显示</t>
-  </si>
-  <si>
-    <t>g_lang.view_selling.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功取回这个上架的物品</t>
-  </si>
-  <si>
-    <t>g_lang.view_selling.take_back.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.view_selling.take_back.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该历史出售记录不存在, 已刷新显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.view_sold.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.view_return.take_back.tip_click_again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次点击来取回这个退回的物品</t>
-  </si>
-  <si>
-    <t>g_lang.view_return.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该退回物品不存在, 已刷新显示</t>
-  </si>
-  <si>
-    <t>g_lang.view_return.take_back.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功取回该退回的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.item_no_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.item_no_enough.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收成功, 获得金钱:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在你的金钱为</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.success.2</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.no_exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.too_much_money.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱太多, 无法回收物品。你的金钱为</t>
-  </si>
-  <si>
-    <t>否则不能回收物品</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.too_much_money.2</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.too_much_money.3</t>
-  </si>
-  <si>
-    <t>回收商店物品</t>
-  </si>
-  <si>
-    <t>g_lang.recycle_shop.recycle.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱不够, 无法购买该玩家商店的物品。需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.money_not_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.money_not_enough.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你只有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功购买出售商店的物品</t>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店物品</t>
-  </si>
-  <si>
-    <t>g_lang.sell_shop.buy.tellraw_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你周围有非法方块(末地门、地狱门、折跃门等), 无法打开商店</t>
-  </si>
-  <si>
-    <t>请与非法方块相隔一定距离再打开商店</t>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_block.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_block.2</t>
-  </si>
-  <si>
-    <t>g_lang.open.welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎使用全球商店</t>
-  </si>
-  <si>
-    <t>周围有玩家在使用商店, 请相距至少 10 格</t>
-  </si>
-  <si>
-    <t>g_lang.open.other_shop_around</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店注册玩家数量达到上限, 已停止注册</t>
-  </si>
-  <si>
-    <t>g_lang.open.register_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时使用商店的人数达到上限, 请稍后使用</t>
-  </si>
-  <si>
-    <t>g_lang.open.use_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.already_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已经在使用商店了, 不能重复打开</t>
-  </si>
-  <si>
-    <t>当前维度未配置允许打开商店</t>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_dimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
-  </si>
-  <si>
-    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要使用请重新打开</t>
-  </si>
-  <si>
-    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
-  </si>
-  <si>
-    <t>数据可能损坏, 已停止运行</t>
-  </si>
-  <si>
-    <t>g_lang.error.incomplete_execution.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.incomplete_execution.2</t>
-  </si>
-  <si>
-    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
-  </si>
-  <si>
-    <t>g_lang.use.incomplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.leave_game.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.leave_game.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.use_long_time.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.use_long_time.2</t>
-  </si>
-  <si>
-    <t>g_lang.stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店已停止运行</t>
-  </si>
-  <si>
-    <t>打开商店的方法:</t>
-  </si>
-  <si>
-    <t>左键点击直接执行命令</t>
-  </si>
-  <si>
-    <t>用 1 根木棍合成 1 根木棍</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.2</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.3</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.4</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.5</t>
-  </si>
-  <si>
-    <t>可直接左键点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前安装的版本号为</t>
-  </si>
-  <si>
-    <t>当前安装的版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请更换对应版本的全球商店数据包</t>
-  </si>
-  <si>
-    <t>请更换对应版本的全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.3</t>
-  </si>
-  <si>
-    <t>已将你设置为商店管理员</t>
-  </si>
-  <si>
-    <t>g_lang.boot.set_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动失败</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.4</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为连锁命令数过低, 当前为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少应为原版默认的 65536</t>
-  </si>
-  <si>
-    <t>光标移到这里来修改连锁命令数</t>
-  </si>
-  <si>
-    <t>请将 ? 替换为连锁命令数</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.4</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.5</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.6</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.7</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.8</t>
-  </si>
-  <si>
-    <t>g_lang.boot.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动完成, 欢迎使用</t>
-  </si>
-  <si>
-    <t>商店原先使用的金钱记分板为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功设置现在使用的金钱记分板为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.success.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.fail.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法将商店的语言设置为</t>
-  </si>
-  <si>
-    <t>因为语言函数文件不存在或格式有误</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.fail.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.set_success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店原先使用的语言为</t>
-  </si>
-  <si>
-    <t>成功设置现在使用的语言为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.set_success.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入自定义语言, 修改失败</t>
-  </si>
-  <si>
-    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请重新尝试更改</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员全局设置</t>
-  </si>
-  <si>
-    <t>编辑货币</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收商店移除物品界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店移除物品界面</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店主界面</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_shop_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退还的物品</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收商店</t>
-  </si>
-  <si>
-    <t>出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑模式主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店已关闭, 欢迎再次光临</t>
-  </si>
-  <si>
-    <t>g_lang.open.close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash_custom_name</t>
-  </si>
-  <si>
-    <t>全球商店货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos.reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.size.reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框大小</t>
-  </si>
-  <si>
-    <t>调整物品信息框上下位置</t>
-  </si>
-  <si>
-    <t>恢复物品信息框默认大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复物品信息框默认位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框左右位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框前后位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改使用的金钱记分板</t>
-  </si>
-  <si>
-    <t>修改语言</t>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.money_sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_shop_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店主界面</t>
-  </si>
-  <si>
-    <t>进入编辑模式</t>
-  </si>
-  <si>
-    <t>浏览出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店后，输入:</t>
-  </si>
-  <si>
-    <t>跳转到这个序号的物品</t>
-  </si>
-  <si>
-    <t>寻找编号为这个 id 的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
-  </si>
-  <si>
-    <t>浏览玩家商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取收入</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.get_income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的金钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.view_my_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向出售商店添加物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从出售商店中去除物品</t>
-  </si>
-  <si>
-    <t>向回收商店添加物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从回收商店中去除物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载全球商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.uninstall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改货币兑换信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置货币物品</t>
-  </si>
-  <si>
-    <t>设置货币价格</t>
-  </si>
-  <si>
-    <t>禁用/启用货币</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个货币已被禁用</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置所有货币</t>
-  </si>
-  <si>
-    <t>慎重点击!</t>
-  </si>
-  <si>
-    <t>将五种货币的外观物品、</t>
-  </si>
-  <si>
-    <t>面值、开关状态</t>
-  </si>
-  <si>
-    <t>均还原为初始状态</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.4</t>
-  </si>
-  <si>
-    <t>左键点击来将命令填入聊天栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来确认修改(否则修改无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你使用全球商店数据包</t>
-  </si>
-  <si>
-    <t>你需要按照以下步骤先抹除所有数据</t>
-  </si>
-  <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>改为</t>
-  </si>
-  <si>
-    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.2</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.7</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.8</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.9</t>
-  </si>
-  <si>
-    <t>上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.dont_remove_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.current_version_is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.modify_until_suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.you_have_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_correct_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_pos_you_want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_and_execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.shop_boot_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.too_much_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_confirm_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.recommend_input_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.now_you_have_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.reopen_to_use_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_click_to_take_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_high_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.info_frame_cant_overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.execute_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_fill_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把要上架的物品拿在主手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退回的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的物品购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览回收商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.player_enter.editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的回收物品数量不足, 需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你只有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.2</t>
-  </si>
-  <si>
-    <t>你的钱太多, 无法存钱。你的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则不能存钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.2</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.3</t>
-  </si>
-  <si>
-    <t>你的主手不是货币, 请拿着货币再存钱</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.no_hold_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取钱。你剩余的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入成功。你当前的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.draw_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.save_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.save_draw_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.cash_disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash.save_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.success</t>
-  </si>
-  <si>
-    <t>抹除数据失败, 你需要输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.10</t>
-  </si>
-  <si>
-    <t>然后点击这里来禁用全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来停止运行并抹除所有数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后请立即删除数据包文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里重载其他数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
-  </si>
-  <si>
-    <t>g_lang.cash.force_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品信息框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.recycle_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.return_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.menu.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.menu_handler.cash_use_in_illigal_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拿着的物品是货币，货币只能用于存钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2670,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="D505" sqref="D505"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2696,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
@@ -2924,7 +2945,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -2978,10 +2999,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,10 +3010,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3005,10 +3026,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3021,10 +3042,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,10 +3058,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,10 +3074,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,10 +3090,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3085,10 +3106,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3101,10 +3122,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3117,10 +3138,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3128,13 +3149,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,10 +3168,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3158,10 +3179,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,10 +3195,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,13 +3206,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3204,10 +3225,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3220,10 +3241,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3231,10 +3252,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>102</v>
@@ -3245,10 +3266,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3256,10 +3277,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3267,10 +3288,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,13 +3304,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,13 +3318,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3311,13 +3332,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3330,10 +3351,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3346,13 +3367,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3360,13 +3381,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3374,13 +3395,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3388,13 +3409,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3407,13 +3428,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3421,10 +3442,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3432,10 +3453,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,10 +3464,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3454,10 +3475,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>102</v>
@@ -3468,10 +3489,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -3482,10 +3503,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3493,10 +3514,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>35</v>
@@ -3512,10 +3533,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,7 +3571,7 @@
         <v>135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>49</v>
@@ -3564,7 +3585,7 @@
         <v>136</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -3589,7 +3610,7 @@
         <v>138</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>52</v>
@@ -3603,7 +3624,7 @@
         <v>139</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>53</v>
@@ -3633,7 +3654,7 @@
         <v>129</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>49</v>
@@ -3647,7 +3668,7 @@
         <v>130</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>15</v>
@@ -3672,7 +3693,7 @@
         <v>132</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>51</v>
@@ -3686,10 +3707,10 @@
         <v>133</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3702,10 +3723,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3713,10 +3734,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3729,10 +3750,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3740,10 +3761,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3756,10 +3777,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3767,10 +3788,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3783,10 +3804,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3799,10 +3820,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3810,10 +3831,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3826,10 +3847,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3842,10 +3863,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3858,10 +3879,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4128,10 +4149,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4144,13 +4165,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4163,10 +4184,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,10 +4195,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4190,10 +4211,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,10 +4227,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4217,10 +4238,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4228,10 +4249,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4244,10 +4265,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4260,18 +4281,18 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4338,7 +4359,7 @@
         <v>94</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>16</v>
@@ -4379,7 +4400,7 @@
         <v>105</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>102</v>
@@ -4393,7 +4414,7 @@
         <v>106</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>15</v>
@@ -4420,7 +4441,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>116</v>
@@ -4468,10 +4489,10 @@
         <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -4479,13 +4500,13 @@
         <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -4498,10 +4519,10 @@
         <v>189</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -4509,13 +4530,13 @@
         <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -4528,10 +4549,10 @@
         <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4539,13 +4560,13 @@
         <v>193</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -4553,10 +4574,10 @@
         <v>194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4569,10 +4590,10 @@
         <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -4585,7 +4606,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -4639,7 +4660,7 @@
         <v>108</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>16</v>
@@ -4680,7 +4701,7 @@
         <v>114</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>102</v>
@@ -4694,7 +4715,7 @@
         <v>115</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>15</v>
@@ -4721,7 +4742,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>124</v>
@@ -4769,10 +4790,10 @@
         <v>218</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -4780,13 +4801,13 @@
         <v>219</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4799,10 +4820,10 @@
         <v>221</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,2645 +4836,2666 @@
         <v>223</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>224</v>
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>225</v>
-      </c>
       <c r="B228" s="3" t="s">
-        <v>143</v>
+        <v>651</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>226</v>
-      </c>
       <c r="B229" s="3" t="s">
-        <v>145</v>
+        <v>650</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>227</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>228</v>
-      </c>
       <c r="B231" s="3" t="s">
-        <v>150</v>
+        <v>652</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>229</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>547</v>
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>553</v>
+        <v>152</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>548</v>
+        <v>151</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>235</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>628</v>
+        <v>552</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>629</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>236</v>
+      </c>
       <c r="B242" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>627</v>
+        <v>547</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>241</v>
-      </c>
       <c r="B245" s="3" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>155</v>
+        <v>557</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>169</v>
+        <v>624</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>156</v>
+        <v>549</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>248</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>252</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>254</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>258</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>260</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>264</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>266</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>270</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>568</v>
+        <v>184</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>564</v>
+        <v>194</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>279</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>568</v>
+        <v>198</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>564</v>
+        <v>202</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>288</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>568</v>
+        <v>212</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>564</v>
+        <v>216</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>297</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>544</v>
+        <v>294</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>237</v>
+        <v>542</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>576</v>
+        <v>228</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>564</v>
+        <v>229</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>306</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>308</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>312</v>
+        <v>309</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>313</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>315</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>317</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>319</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>321</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>323</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>325</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>327</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>329</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>566</v>
+        <v>256</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>334</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>336</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>338</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>343</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>577</v>
+        <v>269</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>572</v>
+        <v>271</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>348</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>280</v>
+        <v>570</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>563</v>
+        <v>279</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>585</v>
+        <v>299</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>355</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>583</v>
+        <v>283</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>15</v>
+        <v>561</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>361</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>363</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>570</v>
+        <v>296</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>593</v>
+        <v>297</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>303</v>
+        <v>649</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>371</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>372</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>304</v>
+      <c r="C376" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>305</v>
+        <v>153</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>264</v>
+        <v>593</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>385</v>
+        <v>380</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>386</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>587</v>
+        <v>381</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>320</v>
+        <v>585</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>392</v>
+        <v>387</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>393</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>436</v>
+        <v>315</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>399</v>
+        <v>394</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>400</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>402</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>404</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>406</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>408</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>592</v>
+        <v>403</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>409</v>
+        <v>404</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>410</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>591</v>
+        <v>405</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>411</v>
+        <v>406</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>412</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>586</v>
+        <v>407</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>414</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>415</v>
+        <v>410</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>416</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>417</v>
+        <v>412</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>418</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>419</v>
+        <v>414</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>420</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>421</v>
+        <v>416</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>422</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>424</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>599</v>
+        <v>419</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>425</v>
+        <v>420</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>426</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>428</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>466</v>
+        <v>596</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>615</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>467</v>
+        <v>597</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>434</v>
+        <v>429</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>435</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>436</v>
+        <v>431</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>437</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>439</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>440</v>
+        <v>435</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>441</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>442</v>
+        <v>437</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>443</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>444</v>
+        <v>439</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>445</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>446</v>
+        <v>441</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>447</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>448</v>
+        <v>443</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>449</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>450</v>
+        <v>445</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>451</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>452</v>
+        <v>447</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>453</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>454</v>
+        <v>449</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>455</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>590</v>
+        <v>450</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>456</v>
+        <v>451</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>457</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>458</v>
+        <v>453</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>459</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>560</v>
+        <v>454</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>460</v>
+        <v>455</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>461</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>463</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>469</v>
+        <v>464</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>470</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>471</v>
+        <v>466</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>472</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>587</v>
+        <v>467</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>473</v>
+        <v>468</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>474</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>589</v>
+        <v>469</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>475</v>
+        <v>470</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>476</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>588</v>
+        <v>471</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>477</v>
+        <v>472</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>478</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>479</v>
+        <v>474</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>480</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>482</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>483</v>
+        <v>478</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>484</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>485</v>
+        <v>480</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>486</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D490" s="3" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>487</v>
+        <v>482</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>488</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>489</v>
+        <v>484</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>490</v>
-      </c>
-      <c r="B494" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>491</v>
+        <v>486</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>492</v>
-      </c>
-      <c r="B496" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>494</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>495</v>
+        <v>490</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>496</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>497</v>
+        <v>492</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>498</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>499</v>
+        <v>494</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>500</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
-        <v>502</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>543</v>
+        <v>532</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
-        <v>504</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
+        <v>501</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>502</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>503</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>504</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
         <v>506</v>
       </c>
-      <c r="B510" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D510" s="3" t="s">
+      <c r="B515" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B512" s="3" t="s">
+      <c r="D515" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B517" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B518" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D518" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B513" s="3" t="s">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B519" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D513" s="3" t="s">
+      <c r="D519" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B520" s="3" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B514" s="3" t="s">
+      <c r="D520" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B521" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D514" s="3" t="s">
+      <c r="D521" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B515" s="3" t="s">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B522" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D515" s="3" t="s">
+      <c r="D522" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B516" s="3" t="s">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B523" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D516" s="3" t="s">
+      <c r="D523" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B517" s="3" t="s">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B524" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D517" s="3" t="s">
+      <c r="D524" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B518" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="D518" s="3" t="s">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B525" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D525" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B519" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G508">
-    <sortCondition ref="A2:A508"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G513">
+    <sortCondition ref="A2:A513"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7463,10 +7505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83908AC7-88B0-46CE-A57F-97EB7204CF0B}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7479,7 +7521,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -7492,15 +7534,15 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -7508,7 +7550,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -7516,7 +7558,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -7524,15 +7566,15 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -7540,7 +7582,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>102</v>
@@ -7548,23 +7590,23 @@
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -7572,47 +7614,47 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -7620,67 +7662,71 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>602</v>
-      </c>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA57263-C03E-430F-ABC3-FF04985214D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B030F-AEFC-48DE-97E1-F9D7B24D44F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="725">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,1080 +1283,1340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当前维度未配置允许打开商店</t>
+  </si>
+  <si>
+    <t>g_lang.open.illegal_dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
+  </si>
+  <si>
+    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要使用请重新打开</t>
+  </si>
+  <si>
+    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
+  </si>
+  <si>
+    <t>数据可能损坏, 已停止运行</t>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.incomplete_execution.2</t>
+  </si>
+  <si>
+    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
+  </si>
+  <si>
+    <t>g_lang.use.incomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.leave_game.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.use.use_long_time.2</t>
+  </si>
+  <si>
+    <t>g_lang.stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店已停止运行</t>
+  </si>
+  <si>
+    <t>打开商店的方法:</t>
+  </si>
+  <si>
+    <t>左键点击直接执行命令</t>
+  </si>
+  <si>
+    <t>用 1 根木棍合成 1 根木棍</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.2</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.3</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.4</t>
+  </si>
+  <si>
+    <t>g_lang.open.tip_open.5</t>
+  </si>
+  <si>
+    <t>可直接左键点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+  </si>
+  <si>
+    <t>当前安装的版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+  </si>
+  <si>
+    <t>请更换对应版本的全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.3</t>
+  </si>
+  <si>
+    <t>已将你设置为商店管理员</t>
+  </si>
+  <si>
+    <t>g_lang.boot.set_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为连锁命令数过低, 当前为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少应为原版默认的 65536</t>
+  </si>
+  <si>
+    <t>光标移到这里来修改连锁命令数</t>
+  </si>
+  <si>
+    <t>请将 ? 替换为连锁命令数</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.2</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.3</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.4</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.5</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.6</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.7</t>
+  </si>
+  <si>
+    <t>g_lang.boot.chain_command_num_too_low.8</t>
+  </si>
+  <si>
+    <t>g_lang.boot.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店启动完成, 欢迎使用</t>
+  </si>
+  <si>
+    <t>商店原先使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功设置现在使用的金钱记分板为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.success.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法将商店的语言设置为</t>
+  </si>
+  <si>
+    <t>因为语言函数文件不存在或格式有误</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.fail.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店原先使用的语言为</t>
+  </si>
+  <si>
+    <t>成功设置现在使用的语言为</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.set_success.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.lang.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义语言, 修改失败</t>
+  </si>
+  <si>
+    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请重新尝试更改</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员全局设置</t>
+  </si>
+  <si>
+    <t>编辑货币</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店移除物品界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店移除物品界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店主界面</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退还的物品</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收商店</t>
+  </si>
+  <si>
+    <t>出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.edit_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店</t>
+  </si>
+  <si>
+    <t>g_lang.change_mode.player_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店已关闭, 欢迎再次光临</t>
+  </si>
+  <si>
+    <t>g_lang.open.close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash_custom_name</t>
+  </si>
+  <si>
+    <t>全球商店货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.pos.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_settings.info_frame.size.reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框大小</t>
+  </si>
+  <si>
+    <t>调整物品信息框上下位置</t>
+  </si>
+  <si>
+    <t>恢复物品信息框默认大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复物品信息框默认位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框左右位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整物品信息框前后位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改使用的金钱记分板</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.money_sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_shop_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店主界面</t>
+  </si>
+  <si>
+    <t>进入编辑模式</t>
+  </si>
+  <si>
+    <t>浏览出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店后，输入:</t>
+  </si>
+  <si>
+    <t>跳转到这个序号的物品</t>
+  </si>
+  <si>
+    <t>寻找编号为这个 id 的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
+  </si>
+  <si>
+    <t>浏览玩家商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取收入</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.get_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的金钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.view_my_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向出售商店添加物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从出售商店中去除物品</t>
+  </si>
+  <si>
+    <t>向回收商店添加物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从回收商店中去除物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载全球商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.uninstall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改货币兑换信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置货币物品</t>
+  </si>
+  <si>
+    <t>设置货币价格</t>
+  </si>
+  <si>
+    <t>禁用/启用货币</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个货币已被禁用</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有货币</t>
+  </si>
+  <si>
+    <t>慎重点击!</t>
+  </si>
+  <si>
+    <t>将五种货币的外观物品、</t>
+  </si>
+  <si>
+    <t>面值、开关状态</t>
+  </si>
+  <si>
+    <t>均还原为初始状态</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.4</t>
+  </si>
+  <si>
+    <t>左键点击来将命令填入聊天栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你使用全球商店数据包</t>
+  </si>
+  <si>
+    <t>你需要按照以下步骤先抹除所有数据</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>改为</t>
+  </si>
+  <si>
+    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.8</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.9</t>
+  </si>
+  <si>
+    <t>上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.dont_remove_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.current_version_is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.modify_until_suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.you_have_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_correct_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_pos_you_want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_and_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.shop_boot_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.too_much_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_confirm_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.recommend_input_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.now_you_have_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.reopen_to_use_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_click_to_take_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_high_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.info_frame_cant_overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.execute_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_fill_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把要上架的物品拿在主手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的物品购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.player_enter.editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的回收物品数量不足, 需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.2</t>
+  </si>
+  <si>
+    <t>你的钱太多, 无法存钱。你的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则不能存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.3</t>
+  </si>
+  <si>
+    <t>你的主手不是货币, 请拿着货币再存钱</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.no_hold_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取钱。你剩余的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入成功。你当前的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.draw_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.save_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.save_draw_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.cash_disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash.save_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.success</t>
+  </si>
+  <si>
+    <t>抹除数据失败, 你需要输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.10</t>
+  </si>
+  <si>
+    <t>然后点击这里来禁用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来停止运行并抹除所有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后请立即删除数据包文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里重载其他数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.cash.force_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.recycle_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.return_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.cash_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.negative.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.menu.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.menu_handler.cash_use_in_illigal_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拿着的物品是货币，货币只能用于存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.ban_player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止/允许某玩家使用商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.2</t>
+  </si>
+  <si>
+    <t>将会清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店、回收商店、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店、退回记录、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售记录、回收记录、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.4</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.5</t>
+  </si>
+  <si>
+    <t>清空动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.6</t>
+  </si>
+  <si>
+    <t>请输入并执行命令:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将 ? 替换为玩家名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来禁止/允许某个玩家使用商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许使用的玩家会被禁止使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行命令后，被禁止的玩家会允许使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.8</t>
+  </si>
+  <si>
+    <t>不要去掉双引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认操作(否则无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认操作(否则无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入玩家名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.9</t>
+  </si>
+  <si>
+    <t>封禁管理员是无效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来查看某个玩家的禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.3</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.4</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.5</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.6</t>
+  </si>
+  <si>
+    <t>g_lang.common.replace_player_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来查看禁用状态(否则无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.no_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该玩家未注册商店</t>
+  </si>
+  <si>
+    <t>重新允许玩家使用商店</t>
+  </si>
+  <si>
+    <t>已禁止玩家使用商店</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.ban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.deban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.no_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在是禁止使用商店的状态</t>
+  </si>
+  <si>
+    <t>现在是允许使用商店的状态</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.banned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.unbanned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.no_input_playername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.no_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.6</t>
+  </si>
+  <si>
+    <t>你需要按照以下步骤来抹除动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来停止运行并抹除动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里重新启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除动态数据失败, 你需要输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除动态数据成功, 请继续上述步骤启动商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.banned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>你已经在使用商店了, 不能重复打开</t>
-  </si>
-  <si>
-    <t>当前维度未配置允许打开商店</t>
-  </si>
-  <si>
-    <t>g_lang.open.illegal_dimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测到你打开的商店不完整, 已强制关闭, 请重新打开</t>
-  </si>
-  <si>
-    <t>你之前在打开商店时退出了游戏, 已强制关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要使用请重新打开</t>
-  </si>
-  <si>
-    <t>全球商店出现错误, 未能完整执行一轮处理中所有的指令</t>
-  </si>
-  <si>
-    <t>数据可能损坏, 已停止运行</t>
-  </si>
-  <si>
-    <t>g_lang.error.incomplete_execution.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.incomplete_execution.2</t>
-  </si>
-  <si>
-    <t>你使用商店太久了, 每次允许使用的分钟数为</t>
-  </si>
-  <si>
-    <t>g_lang.use.incomplete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.leave_game.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.leave_game.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.use_long_time.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.use.use_long_time.2</t>
-  </si>
-  <si>
-    <t>g_lang.stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店已停止运行</t>
-  </si>
-  <si>
-    <t>打开商店的方法:</t>
-  </si>
-  <si>
-    <t>左键点击直接执行命令</t>
-  </si>
-  <si>
-    <t>用 1 根木棍合成 1 根木棍</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.2</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.3</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.4</t>
-  </si>
-  <si>
-    <t>g_lang.open.tip_open.5</t>
-  </si>
-  <si>
-    <t>可直接左键点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个游戏存档运行过更高版本的全球商店, 版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前安装的版本号为</t>
-  </si>
-  <si>
-    <t>当前安装的版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请更换对应版本的全球商店数据包</t>
-  </si>
-  <si>
-    <t>请更换对应版本的全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.3</t>
-  </si>
-  <si>
-    <t>已将你设置为商店管理员</t>
-  </si>
-  <si>
-    <t>g_lang.boot.set_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动失败</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.4</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为连锁命令数过低, 当前为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少应为原版默认的 65536</t>
-  </si>
-  <si>
-    <t>光标移到这里来修改连锁命令数</t>
-  </si>
-  <si>
-    <t>请将 ? 替换为连锁命令数</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.4</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.5</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.6</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.7</t>
-  </si>
-  <si>
-    <t>g_lang.boot.chain_command_num_too_low.8</t>
-  </si>
-  <si>
-    <t>g_lang.boot.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店启动完成, 欢迎使用</t>
-  </si>
-  <si>
-    <t>商店原先使用的金钱记分板为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功设置现在使用的金钱记分板为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.success.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.fail.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法将商店的语言设置为</t>
-  </si>
-  <si>
-    <t>因为语言函数文件不存在或格式有误</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.fail.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.set_success.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店原先使用的语言为</t>
-  </si>
-  <si>
-    <t>成功设置现在使用的语言为</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.set_success.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.lang.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入自定义语言, 修改失败</t>
-  </si>
-  <si>
-    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_exist.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请重新尝试更改</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_exist.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.money_sc.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入自定义金钱记分板名称, 修改失败</t>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员全局设置</t>
-  </si>
-  <si>
-    <t>编辑货币</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收商店移除物品界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店移除物品界面</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店主界面</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_shop_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退还的物品</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.recycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收商店</t>
-  </si>
-  <si>
-    <t>出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.edit_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑模式主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店</t>
-  </si>
-  <si>
-    <t>g_lang.change_mode.player_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店已关闭, 欢迎再次光临</t>
-  </si>
-  <si>
-    <t>g_lang.open.close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash_custom_name</t>
-  </si>
-  <si>
-    <t>全球商店货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.pos.reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_settings.info_frame.size.reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框大小</t>
-  </si>
-  <si>
-    <t>调整物品信息框上下位置</t>
-  </si>
-  <si>
-    <t>恢复物品信息框默认大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复物品信息框默认位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框左右位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整物品信息框前后位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改使用的金钱记分板</t>
-  </si>
-  <si>
-    <t>修改语言</t>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.money_sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_shop_main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店主界面</t>
-  </si>
-  <si>
-    <t>进入编辑模式</t>
-  </si>
-  <si>
-    <t>浏览出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店后，输入:</t>
-  </si>
-  <si>
-    <t>跳转到这个序号的物品</t>
-  </si>
-  <si>
-    <t>寻找编号为这个 id 的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
-  </si>
-  <si>
-    <t>浏览玩家商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取收入</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.get_income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的金钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.view_my_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向出售商店添加物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从出售商店中去除物品</t>
-  </si>
-  <si>
-    <t>向回收商店添加物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从回收商店中去除物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载全球商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.uninstall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改货币兑换信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置货币物品</t>
-  </si>
-  <si>
-    <t>设置货币价格</t>
-  </si>
-  <si>
-    <t>禁用/启用货币</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个货币已被禁用</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置所有货币</t>
-  </si>
-  <si>
-    <t>慎重点击!</t>
-  </si>
-  <si>
-    <t>将五种货币的外观物品、</t>
-  </si>
-  <si>
-    <t>面值、开关状态</t>
-  </si>
-  <si>
-    <t>均还原为初始状态</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.4</t>
-  </si>
-  <si>
-    <t>左键点击来将命令填入聊天栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来确认修改(否则修改无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你使用全球商店数据包</t>
-  </si>
-  <si>
-    <t>你需要按照以下步骤先抹除所有数据</t>
-  </si>
-  <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>改为</t>
-  </si>
-  <si>
-    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.2</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.7</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.8</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.9</t>
-  </si>
-  <si>
-    <t>上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.dont_remove_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.current_version_is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.modify_until_suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.you_have_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_correct_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_pos_you_want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_and_execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.shop_boot_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.too_much_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_confirm_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.recommend_input_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.now_you_have_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.reopen_to_use_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_click_to_take_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_high_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.info_frame_cant_overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.execute_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_fill_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把要上架的物品拿在主手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退回的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的物品购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览回收商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.player_enter.editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的回收物品数量不足, 需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你只有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.2</t>
-  </si>
-  <si>
-    <t>你的钱太多, 无法存钱。你的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则不能存钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.2</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.3</t>
-  </si>
-  <si>
-    <t>你的主手不是货币, 请拿着货币再存钱</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.no_hold_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取钱。你剩余的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入成功。你当前的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.draw_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.save_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.save_draw_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.cash_disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash.save_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.success</t>
-  </si>
-  <si>
-    <t>抹除数据失败, 你需要输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.10</t>
-  </si>
-  <si>
-    <t>然后点击这里来禁用全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来停止运行并抹除所有数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后请立即删除数据包文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里重载其他数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
-  </si>
-  <si>
-    <t>g_lang.cash.force_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品信息框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.recycle_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.return_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.cash_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.player_shop_main.sell.negative.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.menu.no_select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.menu_handler.cash_use_in_illigal_place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拿着的物品是货币，货币只能用于存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被禁止使用商店, 请联系管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.notify_banned_player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被禁止使用商店, 已强制退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2691,16 +2951,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G525"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="72.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
@@ -2717,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
@@ -2945,7 +3205,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -3064,4438 +3324,4800 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
       <c r="B37" s="3" t="s">
-        <v>354</v>
+        <v>720</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>353</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>357</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>361</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>363</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>361</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>375</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>578</v>
+        <v>380</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>569</v>
+        <v>391</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>383</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>400</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>580</v>
+        <v>404</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>102</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>581</v>
+        <v>405</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>15</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>403</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>412</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>140</v>
+        <v>410</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>581</v>
+        <v>134</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>572</v>
+        <v>137</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>54</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>581</v>
+        <v>128</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>572</v>
+        <v>131</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>543</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>414</v>
+        <v>133</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>415</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>100</v>
+      <c r="B101" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
       <c r="B102" s="3" t="s">
-        <v>417</v>
+        <v>686</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>418</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
       <c r="B103" s="3" t="s">
-        <v>420</v>
+        <v>687</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>419</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>103</v>
+      <c r="B104" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
       <c r="B105" s="3" t="s">
-        <v>421</v>
+        <v>689</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
       <c r="B106" s="3" t="s">
-        <v>424</v>
+        <v>690</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>106</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>425</v>
+        <v>664</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>426</v>
+        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>108</v>
+      <c r="B109" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
       <c r="B110" s="3" t="s">
-        <v>428</v>
+        <v>666</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>427</v>
+        <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
       <c r="B111" s="3" t="s">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>429</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>431</v>
+        <v>669</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>432</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>544</v>
+        <v>676</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>623</v>
+        <v>96</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>141</v>
+      <c r="B118" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
       <c r="B120" s="3" t="s">
-        <v>83</v>
+        <v>693</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>120</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
       <c r="B122" s="3" t="s">
-        <v>65</v>
+        <v>703</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>58</v>
+        <v>701</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>59</v>
+      <c r="B124" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>125</v>
+        <v>98</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>61</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>69</v>
+        <v>416</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>62</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>131</v>
+        <v>104</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>70</v>
+        <v>423</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>63</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>71</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>141</v>
+        <v>114</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>142</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
-        <v>148</v>
+        <v>699</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
-        <v>595</v>
+        <v>698</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
-        <v>602</v>
+        <v>723</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>613</v>
+        <v>715</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>158</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>606</v>
+        <v>708</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
-        <v>607</v>
+        <v>709</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>570</v>
+        <v>712</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>160</v>
-      </c>
       <c r="B161" s="3" t="s">
-        <v>608</v>
+        <v>710</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>161</v>
+        <v>713</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>162</v>
-      </c>
       <c r="B163" s="3" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>163</v>
+        <v>717</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>164</v>
-      </c>
       <c r="B165" s="3" t="s">
-        <v>614</v>
+        <v>719</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>612</v>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>118</v>
+      </c>
       <c r="B167" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>630</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>165</v>
+        <v>119</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>166</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>168</v>
+        <v>122</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>169</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>170</v>
+        <v>124</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>171</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>568</v>
+        <v>67</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>175</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>580</v>
+        <v>69</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>177</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>326</v>
+        <v>70</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>181</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>599</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>187</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>600</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>188</v>
+        <v>142</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>189</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>323</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>575</v>
+        <v>76</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>324</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>571</v>
+        <v>148</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>570</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>194</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>195</v>
+        <v>149</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>196</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>333</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>197</v>
+        <v>151</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>198</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>319</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>87</v>
+        <v>598</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>200</v>
+        <v>154</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>201</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>202</v>
+        <v>156</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>203</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>16</v>
+        <v>601</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>205</v>
+        <v>159</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>109</v>
+        <v>605</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>110</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>207</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>102</v>
+        <v>606</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>209</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>121</v>
+        <v>611</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>211</v>
+        <v>609</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>212</v>
-      </c>
       <c r="B215" s="3" t="s">
-        <v>327</v>
+        <v>628</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>124</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>215</v>
+        <v>167</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>216</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>217</v>
+        <v>169</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>218</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>616</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>564</v>
+        <v>93</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>338</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>220</v>
+        <v>172</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>221</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>339</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>222</v>
+        <v>174</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>341</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>176</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>177</v>
+      </c>
       <c r="B228" s="3" t="s">
-        <v>651</v>
+        <v>106</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>178</v>
+      </c>
       <c r="B229" s="3" t="s">
-        <v>650</v>
+        <v>107</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>153</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>179</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>180</v>
+      </c>
       <c r="B231" s="3" t="s">
-        <v>652</v>
+        <v>326</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>653</v>
+        <v>116</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>143</v>
+        <v>118</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>226</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>227</v>
+        <v>184</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>228</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>151</v>
+        <v>596</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>230</v>
+        <v>187</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>233</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>545</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>551</v>
+        <v>322</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>546</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>552</v>
+        <v>325</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>236</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>547</v>
+        <v>191</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>554</v>
+        <v>328</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>548</v>
+        <v>329</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>626</v>
+        <v>331</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>194</v>
+      </c>
       <c r="B245" s="3" t="s">
-        <v>555</v>
+        <v>332</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>625</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>239</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>628</v>
+        <v>195</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>557</v>
+        <v>334</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>629</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>241</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>549</v>
+        <v>197</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>242</v>
+        <v>198</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>154</v>
+        <v>88</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>244</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>245</v>
+        <v>201</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>246</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>251</v>
+        <v>207</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>173</v>
+        <v>114</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>174</v>
+        <v>115</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>579</v>
+        <v>121</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>255</v>
+        <v>211</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>257</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>259</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>579</v>
+        <v>123</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>165</v>
+        <v>613</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>263</v>
+        <v>219</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>264</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>266</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>268</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>185</v>
+        <v>223</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="2">
-        <v>269</v>
-      </c>
       <c r="B276" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>102</v>
+        <v>648</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="2">
-        <v>270</v>
-      </c>
       <c r="B277" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>271</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>272</v>
-      </c>
       <c r="B279" s="3" t="s">
-        <v>194</v>
+        <v>649</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>187</v>
+        <v>650</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>273</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>562</v>
+        <v>145</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>580</v>
+        <v>152</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>279</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>207</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>202</v>
+        <v>548</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>208</v>
+        <v>543</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>203</v>
+        <v>549</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>189</v>
+        <v>544</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>190</v>
+        <v>545</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>286</v>
-      </c>
       <c r="B293" s="3" t="s">
-        <v>212</v>
+        <v>552</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>220</v>
+        <v>622</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>102</v>
+        <v>625</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>15</v>
+        <v>626</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>566</v>
+        <v>621</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>207</v>
+        <v>546</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>290</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>574</v>
+        <v>168</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>293</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>294</v>
+        <v>246</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>297</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>542</v>
+        <v>249</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>299</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>574</v>
+        <v>174</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>307</v>
+        <v>259</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>309</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>310</v>
+        <v>262</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>311</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>312</v>
+        <v>264</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>314</v>
+        <v>266</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>315</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>316</v>
+        <v>268</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>246</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>318</v>
+        <v>270</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>248</v>
+        <v>193</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>320</v>
+        <v>272</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>563</v>
+        <v>195</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>322</v>
+        <v>274</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>251</v>
+        <v>197</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>324</v>
+        <v>276</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>326</v>
+        <v>278</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>256</v>
+        <v>200</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>328</v>
+        <v>280</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>564</v>
+        <v>203</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>331</v>
+        <v>283</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>261</v>
+        <v>205</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>577</v>
+        <v>212</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>335</v>
+        <v>287</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>264</v>
+        <v>214</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>337</v>
+        <v>289</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>267</v>
+        <v>216</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>340</v>
+        <v>292</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>269</v>
+        <v>219</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>342</v>
+        <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>345</v>
+        <v>297</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>571</v>
+        <v>229</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>570</v>
+        <v>235</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>349</v>
+        <v>301</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>280</v>
+        <v>232</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>351</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>352</v>
+        <v>304</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>353</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>561</v>
+        <v>305</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>583</v>
+        <v>224</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>355</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>358</v>
+        <v>310</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>364</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>365</v>
+        <v>317</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>366</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>568</v>
+        <v>248</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>16</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>320</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>321</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="C376" s="3" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>368</v>
+        <v>322</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>591</v>
+        <v>251</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>370</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>371</v>
+        <v>325</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>372</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>373</v>
+        <v>327</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>374</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>592</v>
+        <v>328</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>376</v>
+        <v>330</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>377</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>378</v>
+        <v>332</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>379</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>593</v>
+        <v>333</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>306</v>
+        <v>262</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>381</v>
+        <v>335</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>383</v>
+        <v>337</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>385</v>
+        <v>339</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>386</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>585</v>
+        <v>340</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>388</v>
+        <v>342</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>390</v>
+        <v>344</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>391</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>392</v>
+        <v>346</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>433</v>
+        <v>277</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>434</v>
+        <v>278</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>435</v>
+        <v>276</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>437</v>
+        <v>280</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>436</v>
+        <v>279</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>397</v>
+        <v>351</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>398</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>438</v>
+        <v>352</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>399</v>
+        <v>353</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>441</v>
+        <v>285</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>440</v>
+        <v>580</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>401</v>
+        <v>355</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>443</v>
+        <v>287</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>442</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>403</v>
+        <v>357</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>404</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>405</v>
+        <v>359</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>406</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>407</v>
+        <v>361</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>408</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>590</v>
+        <v>362</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>409</v>
+        <v>363</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>449</v>
+        <v>296</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>589</v>
+        <v>294</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>411</v>
+        <v>365</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>584</v>
+        <v>298</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="2">
-        <v>414</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>452</v>
+        <v>367</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="2">
-        <v>415</v>
+      <c r="C424" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>416</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>417</v>
+        <v>369</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>456</v>
+        <v>301</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>455</v>
+        <v>300</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>419</v>
+        <v>371</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>457</v>
+        <v>302</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>458</v>
+        <v>303</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>459</v>
+        <v>589</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>423</v>
+        <v>375</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>424</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>597</v>
+        <v>376</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>425</v>
+        <v>377</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>426</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>427</v>
+        <v>379</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>463</v>
+        <v>306</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>429</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>465</v>
+        <v>381</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>430</v>
+        <v>382</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>431</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>472</v>
+        <v>383</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>432</v>
+        <v>384</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>433</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>474</v>
+        <v>385</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>434</v>
+        <v>386</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>466</v>
+        <v>313</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>473</v>
+        <v>314</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>436</v>
+        <v>388</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>467</v>
+        <v>315</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>476</v>
+        <v>316</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>438</v>
+        <v>390</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>468</v>
+        <v>317</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>440</v>
+        <v>392</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>442</v>
+        <v>394</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>443</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>444</v>
+        <v>396</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>445</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>479</v>
+        <v>397</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>446</v>
+        <v>398</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>447</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>483</v>
+        <v>399</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>448</v>
+        <v>400</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>449</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>450</v>
+        <v>402</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>451</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>485</v>
+        <v>403</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>452</v>
+        <v>404</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>453</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>489</v>
+        <v>405</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>454</v>
+        <v>406</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>455</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>588</v>
+        <v>407</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>456</v>
+        <v>408</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>457</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>491</v>
+        <v>409</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>458</v>
+        <v>410</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>459</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>558</v>
+        <v>411</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>460</v>
+        <v>412</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>461</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>463</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>465</v>
+        <v>417</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>467</v>
+        <v>419</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>469</v>
+        <v>421</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>471</v>
+        <v>423</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>508</v>
+        <v>593</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>473</v>
+        <v>425</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>509</v>
+        <v>461</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>475</v>
+        <v>427</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>586</v>
+        <v>462</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>477</v>
+        <v>429</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>478</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>479</v>
+        <v>431</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>480</v>
-      </c>
-      <c r="B489" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>514</v>
+        <v>432</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>481</v>
+        <v>433</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>482</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>483</v>
+        <v>435</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>484</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>516</v>
+        <v>436</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>485</v>
+        <v>437</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>486</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>524</v>
+        <v>438</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>487</v>
+        <v>439</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>488</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>489</v>
+        <v>441</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>490</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>522</v>
+        <v>442</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>491</v>
+        <v>443</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>492</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>526</v>
+        <v>444</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A503" s="2">
-        <v>494</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>527</v>
+        <v>445</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A504" s="2">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A505" s="2">
-        <v>496</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>528</v>
+      <c r="B504" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A506" s="2">
-        <v>497</v>
+      <c r="B506" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A507" s="2">
-        <v>498</v>
-      </c>
       <c r="B507" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>531</v>
+        <v>656</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A508" s="2">
-        <v>499</v>
+      <c r="B508" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A509" s="2">
-        <v>500</v>
-      </c>
       <c r="B509" s="3" t="s">
-        <v>538</v>
+        <v>661</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>533</v>
+        <v>657</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A510" s="2">
-        <v>501</v>
-      </c>
       <c r="B510" s="3" t="s">
-        <v>539</v>
+        <v>662</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A511" s="2">
-        <v>502</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>535</v>
+        <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>541</v>
+        <v>480</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
-        <v>504</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
-        <v>505</v>
+        <v>449</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="2">
+        <v>451</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="2">
+        <v>453</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="2">
+        <v>455</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>457</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="2">
+        <v>459</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="2">
+        <v>461</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="2">
+        <v>462</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="2">
+        <v>463</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="2">
+        <v>464</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="2">
+        <v>466</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="2">
+        <v>468</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" s="2">
+        <v>470</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" s="2">
+        <v>472</v>
+      </c>
+      <c r="B537" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B515" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D515" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B517" s="3" t="s">
+      <c r="D537" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" s="2">
+        <v>474</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="2">
+        <v>476</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="2">
+        <v>478</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="2">
+        <v>480</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" s="2">
+        <v>482</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" s="2">
+        <v>484</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" s="2">
+        <v>486</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" s="2">
+        <v>488</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" s="2">
+        <v>490</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" s="2">
+        <v>492</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" s="2">
+        <v>494</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="2">
+        <v>496</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="2">
+        <v>498</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="2">
+        <v>500</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="2">
+        <v>501</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="2">
+        <v>502</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="2">
+        <v>503</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" s="2">
+        <v>504</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" s="2">
+        <v>506</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B573" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B574" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B575" s="3" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B518" s="3" t="s">
+      <c r="D575" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B576" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D518" s="3" t="s">
+      <c r="D576" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B577" s="3" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B519" s="3" t="s">
+      <c r="D577" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B578" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D519" s="3" t="s">
+      <c r="D578" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B520" s="3" t="s">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B579" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="D520" s="3" t="s">
+      <c r="D579" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B521" s="3" t="s">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B580" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D521" s="3" t="s">
+      <c r="D580" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B522" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="D522" s="3" t="s">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B581" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D581" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B523" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B524" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B525" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G513">
-    <sortCondition ref="A2:A513"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G569">
+    <sortCondition ref="A2:A569"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7508,7 +8130,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7521,7 +8143,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -7534,15 +8156,15 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -7550,7 +8172,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -7558,7 +8180,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -7566,15 +8188,15 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -7582,7 +8204,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>102</v>
@@ -7590,15 +8212,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>158</v>
@@ -7606,7 +8228,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -7614,7 +8236,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>246</v>
@@ -7622,7 +8244,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>190</v>
@@ -7630,7 +8252,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>324</v>
@@ -7638,7 +8260,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>271</v>
@@ -7646,7 +8268,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>263</v>
@@ -7654,7 +8276,7 @@
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -7662,7 +8284,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>189</v>
@@ -7670,23 +8292,23 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>186</v>
@@ -7694,39 +8316,43 @@
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>671</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B030F-AEFC-48DE-97E1-F9D7B24D44F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3A3F9-D5F7-4EA7-B0BB-7F89B872FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2953,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3A3F9-D5F7-4EA7-B0BB-7F89B872FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B51819-FC08-46E3-A4B7-FF3709DCE412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="737">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,16 +1389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_lang.error.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.3</t>
-  </si>
-  <si>
     <t>已将你设置为商店管理员</t>
   </si>
   <si>
@@ -1409,19 +1399,6 @@
     <t>全球商店启动失败</t>
   </si>
   <si>
-    <t>g_lang.boot.wrong_version.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.2</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.3</t>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.4</t>
-  </si>
-  <si>
     <t>g_lang.boot.chain_command_num_too_low.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2617,6 +2594,82 @@
   </si>
   <si>
     <t>你被禁止使用商店, 已强制退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.newer.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.newer.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.newer.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.older.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.older.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.older.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个游戏存档运行过更低版本的全球商店, 版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_old_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_new_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本未使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2951,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G581"/>
+  <dimension ref="A1:H590"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2963,13 +3016,14 @@
     <col min="2" max="2" width="46.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="72.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="32.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2977,22 +3031,25 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3000,7 +3057,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3011,7 +3068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3022,7 +3079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3033,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3044,7 +3101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3055,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3066,12 +3123,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3082,7 +3139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3093,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3104,7 +3161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3115,7 +3172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3126,12 +3183,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3205,7 +3262,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -3326,10 +3383,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,7 +3418,7 @@
         <v>355</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3477,7 @@
         <v>368</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>360</v>
@@ -3477,7 +3534,7 @@
         <v>370</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>360</v>
@@ -3523,7 +3580,7 @@
         <v>377</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>102</v>
@@ -3572,880 +3629,919 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>387</v>
+        <v>718</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>575</v>
+        <v>734</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>388</v>
+        <v>719</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>389</v>
+        <v>720</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B72" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>67</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>68</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>69</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>70</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>72</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>67</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>73</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>74</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>68</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>75</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>69</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>70</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>72</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>73</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D76" s="3" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>76</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>74</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C88" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>77</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>75</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>76</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>77</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>78</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>79</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>81</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>83</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>84</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>85</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>86</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>89</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>91</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>578</v>
+        <v>134</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>569</v>
+        <v>137</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>679</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>88</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>89</v>
+      </c>
       <c r="B101" s="3" t="s">
-        <v>684</v>
+        <v>139</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>670</v>
+      <c r="A102" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>91</v>
+      </c>
       <c r="B103" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>578</v>
+        <v>128</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>92</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>93</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>94</v>
+      </c>
       <c r="B106" s="3" t="s">
-        <v>690</v>
+        <v>131</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>692</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>95</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>664</v>
+        <v>133</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>667</v>
+        <v>679</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>92</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>93</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>94</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>95</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="D115" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>96</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>678</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>91</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>681</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>92</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>93</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>94</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>95</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>96</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C127" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>98</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>100</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>101</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>103</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>104</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>106</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>421</v>
+      <c r="B133" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>423</v>
+        <v>673</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>422</v>
+        <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>111</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>426</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>114</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
+        <v>107</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>109</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>111</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>112</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>114</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
         <v>116</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
+      <c r="B153" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B156" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="D157" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B158" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B160" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4458,1522 +4554,1473 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>117</v>
+      <c r="B166" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>118</v>
-      </c>
       <c r="B167" s="3" t="s">
-        <v>141</v>
+        <v>700</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>119</v>
-      </c>
       <c r="B168" s="3" t="s">
-        <v>83</v>
+        <v>701</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>56</v>
+        <v>538</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>120</v>
+      <c r="B169" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>121</v>
-      </c>
       <c r="B170" s="3" t="s">
-        <v>65</v>
+        <v>703</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
-        <v>122</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>58</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>124</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>59</v>
+      <c r="B172" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>125</v>
+      <c r="B174" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>126</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>127</v>
+        <v>118</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>132</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>134</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>136</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>138</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>140</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>142</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>144</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>146</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>592</v>
+        <v>81</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>591</v>
+        <v>82</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>614</v>
+        <v>73</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>529</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>599</v>
+        <v>76</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>598</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>154</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>597</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>610</v>
+        <v>148</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>608</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>159</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>567</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>605</v>
+        <v>588</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>164</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>609</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>156</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B215" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>627</v>
+      <c r="A215" s="2">
+        <v>157</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>142</v>
+        <v>597</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>89</v>
+        <v>598</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>86</v>
+        <v>595</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>91</v>
+        <v>599</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>93</v>
+        <v>604</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>172</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>16</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>173</v>
+      <c r="B224" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>174</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>577</v>
+        <v>89</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>177</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>181</v>
+        <v>172</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>182</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>320</v>
+        <v>106</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>596</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>561</v>
+        <v>107</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>597</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>190</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>324</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>191</v>
+        <v>182</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>192</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>568</v>
+        <v>120</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>567</v>
+        <v>119</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>194</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>333</v>
+        <v>590</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>88</v>
+        <v>325</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>98</v>
+        <v>330</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>204</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>206</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>111</v>
+        <v>319</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>577</v>
+        <v>88</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>209</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>214</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>217</v>
+        <v>208</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>336</v>
+        <v>115</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>613</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>561</v>
+        <v>121</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>338</v>
+        <v>112</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>341</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>215</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>216</v>
+      </c>
       <c r="B276" s="3" t="s">
-        <v>648</v>
+        <v>123</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B277" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>153</v>
+      <c r="A277" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>218</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>219</v>
+      </c>
       <c r="B279" s="3" t="s">
-        <v>649</v>
+        <v>337</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>650</v>
+        <v>338</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>143</v>
+        <v>340</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>226</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="2">
-        <v>228</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>150</v>
+        <v>223</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>229</v>
-      </c>
       <c r="B285" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>151</v>
+        <v>641</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>233</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>542</v>
+      <c r="B286" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>234</v>
-      </c>
       <c r="B288" s="3" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>235</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>544</v>
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>551</v>
+        <v>145</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>545</v>
+        <v>144</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>238</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>624</v>
+        <v>227</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>228</v>
+      </c>
       <c r="B293" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>622</v>
+        <v>150</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>553</v>
+        <v>152</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>625</v>
+        <v>151</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>240</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>626</v>
+        <v>230</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>621</v>
+        <v>540</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>154</v>
+        <v>542</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>168</v>
+        <v>543</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>155</v>
+        <v>537</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>169</v>
+        <v>616</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>156</v>
+        <v>617</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
-        <v>247</v>
-      </c>
       <c r="B302" s="3" t="s">
-        <v>170</v>
+        <v>545</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>157</v>
+        <v>615</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>158</v>
+        <v>618</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>172</v>
+        <v>614</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>159</v>
+        <v>539</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>254</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>255</v>
+        <v>246</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>258</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>260</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>263</v>
+        <v>254</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>264</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>266</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>270</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>563</v>
+        <v>180</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>272</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>571</v>
+        <v>182</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>102</v>
@@ -5981,13 +6028,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>15</v>
@@ -5995,49 +6042,49 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>189</v>
@@ -6045,13 +6092,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>190</v>
@@ -6059,29 +6106,29 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>102</v>
@@ -6089,13 +6136,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>15</v>
@@ -6103,13 +6150,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>207</v>
@@ -6117,35 +6164,35 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>189</v>
@@ -6153,13 +6200,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>190</v>
@@ -6167,29 +6214,29 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>102</v>
@@ -6197,60 +6244,63 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>540</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>189</v>
@@ -6258,13 +6308,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>190</v>
@@ -6272,1852 +6322,1957 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>224</v>
+        <v>533</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>307</v>
+        <v>298</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>310</v>
+        <v>301</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>319</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>321</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>322</v>
+        <v>313</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>323</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>324</v>
+        <v>315</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>325</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>326</v>
+        <v>317</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>327</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>328</v>
+        <v>319</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>329</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>282</v>
+        <v>258</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>344</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>345</v>
+        <v>336</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>346</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>567</v>
+        <v>267</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>351</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>352</v>
+        <v>343</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>558</v>
+        <v>271</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>354</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>580</v>
+        <v>345</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>577</v>
+        <v>274</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>15</v>
+        <v>560</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>360</v>
+        <v>351</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>361</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>362</v>
+        <v>353</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>293</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>294</v>
+        <v>102</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>365</v>
+        <v>356</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>367</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>16</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>359</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C424" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>153</v>
+      <c r="A424" s="2">
+        <v>360</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>368</v>
+        <v>361</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>369</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>588</v>
+        <v>362</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>371</v>
+        <v>364</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>372</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>373</v>
+        <v>366</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A432" s="2">
-        <v>375</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>310</v>
+        <v>639</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="2">
-        <v>376</v>
+      <c r="C433" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>377</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>378</v>
+        <v>369</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>590</v>
+        <v>301</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>380</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>381</v>
+        <v>372</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>382</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>383</v>
+        <v>374</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>574</v>
+        <v>304</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>582</v>
+        <v>312</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>387</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>388</v>
+        <v>379</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>432</v>
+        <v>309</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>394</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>438</v>
+        <v>315</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>440</v>
+        <v>317</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>439</v>
+        <v>318</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>403</v>
+        <v>394</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>404</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>405</v>
+        <v>396</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>406</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>407</v>
+        <v>398</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>408</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>587</v>
+        <v>399</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>409</v>
+        <v>400</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>410</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>586</v>
+        <v>401</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>411</v>
+        <v>402</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>412</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>581</v>
+        <v>403</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>414</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>416</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>417</v>
+        <v>408</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>418</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>419</v>
+        <v>410</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>420</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>421</v>
+        <v>412</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>422</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>423</v>
+        <v>414</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>424</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>594</v>
+        <v>415</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>426</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>460</v>
+        <v>417</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>427</v>
+        <v>418</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>428</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>470</v>
+        <v>586</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>473</v>
+        <v>587</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>438</v>
+        <v>429</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>439</v>
-      </c>
-      <c r="B496" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>440</v>
+        <v>431</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>441</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>442</v>
+        <v>433</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>443</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>444</v>
+        <v>435</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>437</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>439</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>441</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>443</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
         <v>445</v>
       </c>
-      <c r="B502" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D502" s="3" t="s">
+      <c r="B511" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B513" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B515" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B516" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B517" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D517" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B504" s="3" t="s">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B518" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B519" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D519" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B506" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B507" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B508" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B509" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B510" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A512" s="2">
-        <v>447</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A513" s="2">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="2">
-        <v>449</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D514" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="2">
-        <v>451</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="2">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="2">
-        <v>453</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="2">
-        <v>455</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
-        <v>456</v>
+        <v>447</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
-        <v>457</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D522" s="3" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
-        <v>458</v>
+        <v>449</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
-        <v>459</v>
-      </c>
-      <c r="B524" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>555</v>
+        <v>450</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
-        <v>460</v>
+        <v>451</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
-        <v>461</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>496</v>
+        <v>479</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
-        <v>463</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
-        <v>471</v>
+        <v>462</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>582</v>
+        <v>486</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
-        <v>473</v>
+        <v>464</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
-        <v>474</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D539" s="3" t="s">
-        <v>584</v>
+        <v>465</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
-        <v>475</v>
+        <v>466</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
-        <v>476</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D541" s="3" t="s">
-        <v>583</v>
+        <v>467</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
-        <v>477</v>
+        <v>468</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
-        <v>478</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D543" s="3" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
-        <v>479</v>
+        <v>470</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
-        <v>480</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D545" s="3" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
-        <v>481</v>
+        <v>472</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
-        <v>482</v>
-      </c>
-      <c r="B547" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D547" s="3" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
-        <v>483</v>
+        <v>474</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
-        <v>484</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D549" s="3" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
-        <v>485</v>
+        <v>476</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
-        <v>486</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D551" s="3" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
-        <v>487</v>
+        <v>478</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
-        <v>488</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D553" s="3" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
-        <v>489</v>
+        <v>480</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
-        <v>490</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D555" s="3" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
-        <v>491</v>
+        <v>482</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
-        <v>492</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D557" s="3" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
-        <v>493</v>
+        <v>484</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
-        <v>494</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D559" s="3" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
-        <v>495</v>
+        <v>486</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
-        <v>496</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D561" s="3" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
-        <v>497</v>
+        <v>488</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
-        <v>498</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D563" s="3" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
-        <v>499</v>
+        <v>490</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
-        <v>500</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D565" s="3" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
-        <v>502</v>
-      </c>
-      <c r="B567" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D567" s="3" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
-        <v>504</v>
-      </c>
-      <c r="B569" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D569" s="3" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
-        <v>505</v>
+        <v>496</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="2">
+        <v>498</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="2">
+        <v>500</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" s="2">
+        <v>501</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="2">
+        <v>502</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
+        <v>503</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="2">
+        <v>504</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
         <v>506</v>
       </c>
-      <c r="B571" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D571" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B573" s="3" t="s">
+      <c r="B580" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B582" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B583" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B584" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B585" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B586" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B587" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B588" s="3" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B574" s="3" t="s">
+      <c r="D588" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B589" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D574" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B575" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D575" s="3" t="s">
+      <c r="D589" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B590" s="3" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B576" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D576" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B577" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D577" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B578" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D578" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B579" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="D579" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B580" s="3" t="s">
+      <c r="D590" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D580" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B581" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="D581" s="3" t="s">
-        <v>644</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G569">
-    <sortCondition ref="A2:A569"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H578">
+    <sortCondition ref="A2:A578"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8143,7 +8298,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -8156,15 +8311,15 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -8172,7 +8327,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -8180,7 +8335,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -8188,7 +8343,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>384</v>
@@ -8196,7 +8351,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -8204,7 +8359,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>102</v>
@@ -8212,7 +8367,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>382</v>
@@ -8220,7 +8375,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>158</v>
@@ -8228,7 +8383,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -8236,7 +8391,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>246</v>
@@ -8244,7 +8399,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>190</v>
@@ -8252,7 +8407,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>324</v>
@@ -8260,7 +8415,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>271</v>
@@ -8268,7 +8423,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>263</v>
@@ -8276,7 +8431,7 @@
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -8284,7 +8439,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>189</v>
@@ -8292,7 +8447,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>360</v>
@@ -8300,7 +8455,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>386</v>
@@ -8308,7 +8463,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>186</v>
@@ -8316,42 +8471,42 @@
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B51819-FC08-46E3-A4B7-FF3709DCE412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56367100-81DC-48E3-B5A4-0BBC52DF4273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="739">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2670,6 +2670,13 @@
   </si>
   <si>
     <t>当前版本未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时下架</t>
+  </si>
+  <si>
+    <t>g_lang.item_frame.return_reason.expire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3004,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B590" sqref="B590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8264,9 +8271,17 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B590" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B591" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D590" s="3" t="s">
+      <c r="D591" s="3" t="s">
         <v>637</v>
       </c>
     </row>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56367100-81DC-48E3-B5A4-0BBC52DF4273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC163147-0193-48C2-BE7B-C84D096A7BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,13 +1251,6 @@
     <t>g_lang.open.illegal_block.2</t>
   </si>
   <si>
-    <t>g_lang.open.welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎使用全球商店</t>
-  </si>
-  <si>
     <t>周围有玩家在使用商店, 请相距至少 10 格</t>
   </si>
   <si>
@@ -1699,985 +1692,995 @@
     <t>进入玩家商店主界面</t>
   </si>
   <si>
+    <t>浏览出售商店</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.enter_player_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入玩家商店后，输入:</t>
+  </si>
+  <si>
+    <t>跳转到这个序号的物品</t>
+  </si>
+  <si>
+    <t>寻找编号为这个 id 的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
+  </si>
+  <si>
+    <t>浏览玩家商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_selling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取收入</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.get_income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的金钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.view_my_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.player_shop_main.enter_view_sold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向出售商店添加物品</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向回收商店添加物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_edit_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局设置</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.enter_admin_settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载全球商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_main.uninstall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改货币兑换信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置货币物品</t>
+  </si>
+  <si>
+    <t>设置货币价格</t>
+  </si>
+  <si>
+    <t>禁用/启用货币</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.set_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个货币已被禁用</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有货币</t>
+  </si>
+  <si>
+    <t>慎重点击!</t>
+  </si>
+  <si>
+    <t>将五种货币的外观物品、</t>
+  </si>
+  <si>
+    <t>面值、开关状态</t>
+  </si>
+  <si>
+    <t>均还原为初始状态</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.2</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.4</t>
+  </si>
+  <si>
+    <t>左键点击来将命令填入聊天栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你使用全球商店数据包</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>改为</t>
+  </si>
+  <si>
+    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.8</t>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.9</t>
+  </si>
+  <si>
+    <t>上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.dont_remove_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.current_version_is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来上架物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.modify_until_suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.you_have_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_correct_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.replace_pos_you_want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.input_and_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.shop_boot_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.too_much_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_confirm_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.recommend_input_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.now_you_have_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.reopen_to_use_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.re_click_to_take_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_high_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.info_frame_cant_overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.execute_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.click_to_fill_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把要上架的物品拿在主手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看退回的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己的物品购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览回收商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自己正在出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.player_enter.editing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.change_mode.cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱、取钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的回收物品数量不足, 需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.money_no_enough.2</t>
+  </si>
+  <si>
+    <t>你的钱太多, 无法存钱。你的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则不能存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.2</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.too_much_money.3</t>
+  </si>
+  <si>
+    <t>你的主手不是货币, 请拿着货币再存钱</t>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.no_hold_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取钱。你剩余的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入成功。你当前的金钱为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.draw_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.cash.exchange.save_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.save_draw_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.cash_disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱</t>
+  </si>
+  <si>
+    <t>g_lang.control.edit_cash.reset_all.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.cash.save_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.uninstall.success</t>
+  </si>
+  <si>
+    <t>抹除数据失败, 你需要输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.10</t>
+  </si>
+  <si>
+    <t>然后点击这里来禁用全球商店数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.edit_main.install_tip.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来停止运行并抹除所有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后请立即删除数据包文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里重载其他数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
+  </si>
+  <si>
+    <t>g_lang.cash.force_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品信息框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.recycle_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.return_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.cash_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.player_shop_main.sell.negative.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.menu.no_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.menu_handler.cash_use_in_illigal_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拿着的物品是货币，货币只能用于存钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.ban_player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止/允许某玩家使用商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.2</t>
+  </si>
+  <si>
+    <t>将会清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售商店、回收商店、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家商店、退回记录、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售记录、回收记录、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.3</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.4</t>
+  </si>
+  <si>
+    <t>g_lang.control.admin_settings.reset_dynamic_data.5</t>
+  </si>
+  <si>
+    <t>清空动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.6</t>
+  </si>
+  <si>
+    <t>请输入并执行命令:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将 ? 替换为玩家名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来禁止/允许某个玩家使用商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许使用的玩家会被禁止使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行命令后，被禁止的玩家会允许使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.7</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.8</t>
+  </si>
+  <si>
+    <t>不要去掉双引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认操作(否则无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来确认操作(否则无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有输入玩家名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.tip.9</t>
+  </si>
+  <si>
+    <t>封禁管理员是无效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移到这里来查看某个玩家的禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.2</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.3</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.4</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.5</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player_state.6</t>
+  </si>
+  <si>
+    <t>g_lang.common.replace_player_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来查看禁用状态(否则无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.no_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该玩家未注册商店</t>
+  </si>
+  <si>
+    <t>重新允许玩家使用商店</t>
+  </si>
+  <si>
+    <t>已禁止玩家使用商店</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.ban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.deban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.no_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.no_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在是禁止使用商店的状态</t>
+  </si>
+  <si>
+    <t>现在是允许使用商店的状态</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.banned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.get_ban_state.unbanned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.no_input_playername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.no_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.3</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.4</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.5</t>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.6</t>
+  </si>
+  <si>
+    <t>你需要按照以下步骤来抹除动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里来停止运行并抹除动态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后点击这里重新启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data_tip.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data.fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除动态数据失败, 你需要输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除动态数据成功, 请继续上述步骤启动商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.reset_dynamic_data.success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.open.banned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经在使用商店了, 不能重复打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被禁止使用商店, 请联系管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.ban_player.notify_banned_player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被禁止使用商店, 已强制退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.newer.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.newer.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.newer.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.newer.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.older.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.older.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.error.wrong_version.older.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.boot.wrong_version.older.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个游戏存档运行过更低版本的全球商店, 版本号为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_old_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.common.have_run_new_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时下架</t>
+  </si>
+  <si>
+    <t>g_lang.item_frame.return_reason.expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看出售商店和去除物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看回收商店和去除物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你需要按照以下步骤抹除所有数据并卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进入编辑模式</t>
-  </si>
-  <si>
-    <t>浏览出售商店</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.enter_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.enter_player_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入玩家商店后，输入:</t>
-  </si>
-  <si>
-    <t>跳转到这个序号的物品</t>
-  </si>
-  <si>
-    <t>寻找编号为这个 id 的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_player_shop.4</t>
-  </si>
-  <si>
-    <t>浏览玩家商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_selling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取收入</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.get_income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的金钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.view_my_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_bought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.player_shop_main.enter_view_sold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向出售商店添加物品</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_sell_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从出售商店中去除物品</t>
-  </si>
-  <si>
-    <t>向回收商店添加物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从回收商店中去除物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.add_to_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.remove_from_recycle_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_edit_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局设置</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.enter_admin_settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载全球商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_main.uninstall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改货币兑换信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置货币物品</t>
-  </si>
-  <si>
-    <t>设置货币价格</t>
-  </si>
-  <si>
-    <t>禁用/启用货币</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.set_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个货币已被禁用</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置所有货币</t>
-  </si>
-  <si>
-    <t>慎重点击!</t>
-  </si>
-  <si>
-    <t>将五种货币的外观物品、</t>
-  </si>
-  <si>
-    <t>面值、开关状态</t>
-  </si>
-  <si>
-    <t>均还原为初始状态</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.2</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.4</t>
-  </si>
-  <si>
-    <t>左键点击来将命令填入聊天栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你使用全球商店数据包</t>
-  </si>
-  <si>
-    <t>你需要按照以下步骤先抹除所有数据</t>
-  </si>
-  <si>
-    <t>将</t>
-  </si>
-  <si>
-    <t>改为</t>
-  </si>
-  <si>
-    <t>你已经完全卸载全球商店数据包, 再次感谢你的使用</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.2</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.7</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.8</t>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.9</t>
-  </si>
-  <si>
-    <t>上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.dont_remove_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.current_version_is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来上架物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.modify_until_suit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.you_have_only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_correct_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.replace_pos_you_want</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.input_and_execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.shop_boot_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球商店为了避免整数溢出, 金钱不能超过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.too_much_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_confirm_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.recommend_input_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.now_you_have_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.reopen_to_use_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.re_click_to_take_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_high_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.info_frame_cant_overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.execute_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.click_to_fill_command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把要上架的物品拿在主手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看退回的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己的物品购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览回收商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看自己正在出售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有管理员正在编辑货币兑换, 请等待管理员维护完成后再使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.player_enter.editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.change_mode.cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱、取钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的回收物品数量不足, 需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你只有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.money_no_enough.2</t>
-  </si>
-  <si>
-    <t>你的钱太多, 无法存钱。你的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则不能存钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.2</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.too_much_money.3</t>
-  </si>
-  <si>
-    <t>你的主手不是货币, 请拿着货币再存钱</t>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.no_hold_cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取钱。你剩余的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入成功。你当前的金钱为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.draw_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.cash.exchange.save_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.save_draw_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的钱不够, 无法购买该出售商店的物品。需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.cash_disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱</t>
-  </si>
-  <si>
-    <t>g_lang.control.edit_cash.reset_all.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.cash.save_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.uninstall.success</t>
-  </si>
-  <si>
-    <t>抹除数据失败, 你需要输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹除数据成功, 请继续上述卸载步骤, 再次感谢你使用全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.10</t>
-  </si>
-  <si>
-    <t>然后点击这里来禁用全球商店数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.edit_main.install_tip.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来停止运行并抹除所有数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后请立即删除数据包文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里重载其他数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员开始维护货币兑换信息, 已返回主菜单</t>
-  </si>
-  <si>
-    <t>g_lang.cash.force_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品信息框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.recycle_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.return_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.item_frame.cash_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.player_shop_main.sell.negative.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.menu.no_select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.menu_handler.cash_use_in_illigal_place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拿着的物品是货币，货币只能用于存钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.ban_player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止/允许某玩家使用商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.reset_dynamic_data.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.reset_dynamic_data.2</t>
-  </si>
-  <si>
-    <t>将会清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售商店、回收商店、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家商店、退回记录、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售记录、回收记录、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.reset_dynamic_data.3</t>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.reset_dynamic_data.4</t>
-  </si>
-  <si>
-    <t>g_lang.control.admin_settings.reset_dynamic_data.5</t>
-  </si>
-  <si>
-    <t>清空动态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.6</t>
-  </si>
-  <si>
-    <t>请输入并执行命令:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请将 ? 替换为玩家名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来禁止/允许某个玩家使用商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许使用的玩家会被禁止使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行命令后，被禁止的玩家会允许使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.7</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.8</t>
-  </si>
-  <si>
-    <t>不要去掉双引号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来确认操作(否则无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来确认操作(否则无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有输入玩家名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.tip.9</t>
-  </si>
-  <si>
-    <t>封禁管理员是无效的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player_state.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移到这里来查看某个玩家的禁用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player_state.2</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player_state.3</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player_state.4</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player_state.5</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player_state.6</t>
-  </si>
-  <si>
-    <t>g_lang.common.replace_player_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来查看禁用状态(否则无效)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.get_ban_state.no_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该玩家未注册商店</t>
-  </si>
-  <si>
-    <t>重新允许玩家使用商店</t>
-  </si>
-  <si>
-    <t>已禁止玩家使用商店</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.ban</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.deban</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.no_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.get_ban_state.no_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在是禁止使用商店的状态</t>
-  </si>
-  <si>
-    <t>现在是允许使用商店的状态</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.get_ban_state.banned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.get_ban_state.unbanned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.no_input_playername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.no_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data_tip.3</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data_tip.4</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data_tip.5</t>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data_tip.6</t>
-  </si>
-  <si>
-    <t>你需要按照以下步骤来抹除动态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里来停止运行并抹除动态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后点击这里重新启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data_tip.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data_tip.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data.fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除动态数据失败, 你需要输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除动态数据成功, 请继续上述步骤启动商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.reset_dynamic_data.success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.open.banned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已经在使用商店了, 不能重复打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被禁止使用商店, 请联系管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.admin_settings.ban_player.notify_banned_player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被禁止使用商店, 已强制退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.newer.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.newer.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.newer.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.newer.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.newer.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.newer.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.newer.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.older.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.older.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.error.wrong_version.older.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.older.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.older.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.older.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.boot.wrong_version.older.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个游戏存档运行过更低版本的全球商店, 版本号为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_old_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_lang.common.have_run_new_version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前版本未使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时下架</t>
-  </si>
-  <si>
-    <t>g_lang.item_frame.return_reason.expire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有管理员才能进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_edit.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.control.enter_edit.2</t>
   </si>
 </sst>
 </file>
@@ -3011,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H591"/>
+  <dimension ref="A1:H590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B590" sqref="B590"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,13 +3041,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>85</v>
@@ -3269,7 +3272,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -3342,28 +3345,28 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>350</v>
@@ -3372,73 +3375,73 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
       <c r="B35" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>353</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>355</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>714</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>356</v>
@@ -3446,286 +3449,289 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>566</v>
+        <v>361</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>361</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>50</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>365</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>376</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>378</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>374</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>62</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>63</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>386</v>
+      <c r="E67" s="3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>733</v>
+        <v>548</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>732</v>
+        <v>384</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>736</v>
+      <c r="A69" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>65</v>
+      </c>
       <c r="B70" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>555</v>
+        <v>386</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>736</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>388</v>
+        <v>714</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>387</v>
@@ -3733,143 +3739,146 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>69</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>70</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>385</v>
+      <c r="C78" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>72</v>
+      </c>
       <c r="B82" s="3" t="s">
-        <v>731</v>
+        <v>388</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>559</v>
+        <v>395</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>396</v>
@@ -3878,453 +3887,439 @@
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="C86" s="3" t="s">
+        <v>563</v>
+      </c>
       <c r="D86" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="C87" s="3" t="s">
+        <v>564</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>400</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>81</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>83</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>84</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>85</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>86</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>78</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>79</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>81</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>83</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>84</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>557</v>
+        <v>137</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>50</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>88</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>562</v>
+        <v>128</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>557</v>
+        <v>131</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>95</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>51</v>
+        <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>96</v>
-      </c>
       <c r="B108" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>562</v>
+        <v>670</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
         <v>672</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>678</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>557</v>
+        <v>677</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>52</v>
+        <v>678</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>91</v>
+      </c>
       <c r="B115" s="3" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>685</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>91</v>
-      </c>
       <c r="B117" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>92</v>
+      </c>
       <c r="B119" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>93</v>
+      </c>
       <c r="B120" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>676</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>661</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>557</v>
+        <v>677</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>662</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>15</v>
+        <v>663</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>668</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>684</v>
+        <v>555</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>95</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>96</v>
-      </c>
       <c r="B125" s="3" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>562</v>
+        <v>691</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>687</v>
@@ -4332,2921 +4327,2929 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>98</v>
+      </c>
       <c r="B133" s="3" t="s">
-        <v>697</v>
+        <v>666</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>695</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>698</v>
+        <v>404</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>674</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>100</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>405</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>103</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>410</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>106</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>414</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>111</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>419</v>
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>423</v>
+        <v>528</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>115</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>116</v>
-      </c>
       <c r="B153" s="3" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
-        <v>611</v>
+        <v>685</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>717</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>704</v>
+        <v>530</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>571</v>
+        <v>694</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>537</v>
+        <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B169" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>118</v>
+      </c>
       <c r="B174" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>711</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>118</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>121</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>146</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>148</v>
+        <v>578</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>149</v>
+        <v>577</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>153</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>591</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>159</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>560</v>
+        <v>161</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>163</v>
+        <v>595</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>164</v>
-      </c>
       <c r="B222" s="3" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>602</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>166</v>
+      </c>
       <c r="B224" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>620</v>
+        <v>142</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>166</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>171</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>558</v>
+        <v>99</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>570</v>
+        <v>107</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>177</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>119</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>186</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>589</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>554</v>
+        <v>322</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>590</v>
+        <v>323</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>189</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>323</v>
+        <v>191</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>565</v>
+        <v>328</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>193</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>560</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>198</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>319</v>
+        <v>200</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>203</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>558</v>
+        <v>109</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>570</v>
+        <v>121</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>209</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>126</v>
+        <v>599</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>218</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>606</v>
+        <v>220</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>554</v>
+        <v>340</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>222</v>
+        <v>341</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>223</v>
-      </c>
       <c r="B283" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B285" s="3" t="s">
-        <v>641</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B284" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B286" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>153</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>224</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>225</v>
+      </c>
       <c r="B288" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>643</v>
+        <v>143</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>224</v>
+        <v>226</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>225</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>228</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>152</v>
+        <v>533</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>151</v>
+        <v>529</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>230</v>
+        <v>234</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
-        <v>237</v>
-      </c>
       <c r="B300" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>240</v>
+      </c>
       <c r="B302" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>618</v>
+        <v>532</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>240</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>619</v>
+        <v>242</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>539</v>
+        <v>154</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>243</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>247</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>569</v>
+        <v>172</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>253</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>569</v>
+        <v>176</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>259</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>569</v>
+        <v>180</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>265</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>569</v>
+        <v>184</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>571</v>
+        <v>194</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>556</v>
+        <v>195</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>274</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>552</v>
+        <v>198</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>571</v>
+        <v>202</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>556</v>
+        <v>203</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>283</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>552</v>
+        <v>212</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>571</v>
+        <v>216</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>556</v>
+        <v>217</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>292</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>552</v>
+        <v>225</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>233</v>
+        <v>527</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>570</v>
+        <v>228</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>571</v>
+        <v>229</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>533</v>
+        <v>235</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>301</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>552</v>
+        <v>210</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>308</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>553</v>
+        <v>248</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>553</v>
+        <v>251</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>329</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>554</v>
+        <v>261</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>567</v>
+        <v>264</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>338</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>343</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>565</v>
+        <v>274</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>347</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>560</v>
+        <v>349</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>350</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>299</v>
+        <v>544</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>551</v>
+        <v>102</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>573</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>570</v>
+        <v>288</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>356</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>363</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="2">
-        <v>366</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>298</v>
+        <v>367</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>367</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="C431" s="3" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>16</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>368</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C433" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>153</v>
+      <c r="A433" s="2">
+        <v>369</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>369</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>581</v>
+        <v>371</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>303</v>
+        <v>575</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>373</v>
+        <v>375</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>374</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>582</v>
+        <v>376</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>311</v>
+        <v>576</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>379</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>583</v>
+        <v>381</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>263</v>
+        <v>568</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>385</v>
+        <v>387</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>386</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>575</v>
+        <v>388</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>318</v>
+        <v>423</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>393</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B460" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D460" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>429</v>
@@ -7257,12 +7260,12 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>431</v>
@@ -7273,12 +7276,12 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>433</v>
@@ -7289,12 +7292,12 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>435</v>
@@ -7305,12 +7308,12 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>437</v>
@@ -7321,76 +7324,76 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>438</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>443</v>
@@ -7401,138 +7404,138 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B482" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D482" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B484" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D484" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B486" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>452</v>
+        <v>579</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>451</v>
+        <v>580</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>605</v>
+        <v>452</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>587</v>
+        <v>451</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D492" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>427</v>
+        <v>429</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>428</v>
-      </c>
-      <c r="B494" s="3" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>464</v>
@@ -7540,682 +7543,682 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B499" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D499" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A510" s="2">
-        <v>444</v>
+        <v>637</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A511" s="2">
-        <v>445</v>
-      </c>
       <c r="B511" s="3" t="s">
-        <v>472</v>
+        <v>638</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B513" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B514" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B515" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B516" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B517" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B518" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="2">
+        <v>447</v>
+      </c>
       <c r="B519" s="3" t="s">
-        <v>655</v>
+        <v>471</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>652</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="2">
+        <v>448</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>473</v>
+        <v>737</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>474</v>
+        <v>735</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="2">
-        <v>448</v>
+      <c r="B522" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
-        <v>449</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
-        <v>451</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
-        <v>453</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
-        <v>455</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>578</v>
+        <v>456</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
-        <v>457</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
-        <v>459</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D533" s="3" t="s">
-        <v>548</v>
+        <v>460</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
-        <v>464</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D538" s="3" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
-        <v>466</v>
-      </c>
-      <c r="B540" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
-        <v>468</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D542" s="3" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
-        <v>470</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D544" s="3" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
-        <v>472</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D546" s="3" t="s">
-        <v>575</v>
+        <v>473</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
-        <v>474</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D548" s="3" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
-        <v>476</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D550" s="3" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
-        <v>478</v>
-      </c>
-      <c r="B552" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D552" s="3" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
-        <v>480</v>
-      </c>
-      <c r="B554" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D554" s="3" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
-        <v>482</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D556" s="3" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
-        <v>484</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D558" s="3" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
-        <v>486</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D560" s="3" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
-        <v>488</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D562" s="3" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
-        <v>490</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D564" s="3" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
-        <v>492</v>
-      </c>
-      <c r="B566" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D566" s="3" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
-        <v>494</v>
-      </c>
-      <c r="B568" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D568" s="3" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
-        <v>496</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D570" s="3" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
-        <v>497</v>
+        <v>498</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
-        <v>498</v>
-      </c>
-      <c r="B572" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C572" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D572" s="3" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
-        <v>504</v>
-      </c>
-      <c r="B578" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D578" s="3" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="2">
         <v>506</v>
       </c>
-      <c r="B580" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D580" s="3" t="s">
-        <v>608</v>
+      <c r="B579" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B581" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B582" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B583" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D583" s="3" t="s">
         <v>624</v>
@@ -8223,71 +8226,63 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B584" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D584" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="D584" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B585" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D585" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="D585" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B586" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D586" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="D586" s="3" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B587" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D587" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="D587" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B588" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D588" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="D588" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B589" s="3" t="s">
-        <v>630</v>
+        <v>731</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>636</v>
+        <v>730</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B590" s="3" t="s">
-        <v>738</v>
+        <v>631</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B591" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="D591" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H578">
-    <sortCondition ref="A2:A578"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H577">
+    <sortCondition ref="A2:A577"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8313,7 +8308,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -8326,15 +8321,15 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -8342,7 +8337,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -8350,7 +8345,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -8358,15 +8353,15 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -8374,7 +8369,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>102</v>
@@ -8382,15 +8377,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>158</v>
@@ -8398,7 +8393,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -8406,7 +8401,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>246</v>
@@ -8414,7 +8409,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>190</v>
@@ -8422,7 +8417,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>324</v>
@@ -8430,7 +8425,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>271</v>
@@ -8438,7 +8433,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>263</v>
@@ -8446,7 +8441,7 @@
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -8454,7 +8449,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>189</v>
@@ -8462,23 +8457,23 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>186</v>
@@ -8486,42 +8481,42 @@
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC163147-0193-48C2-BE7B-C84D096A7BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146F75D-8EC4-4481-91DE-6B84B5CEDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="741">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1488,9 +1488,6 @@
     <t>你没有输入自定义语言, 修改失败</t>
   </si>
   <si>
-    <t>你输入的金钱记分板不存在, 商店仍保持使用原先的金钱记分板</t>
-  </si>
-  <si>
     <t>g_lang.admin_settings.money_sc.no_exist.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2454,13 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_lang.admin_settings.get_ban_state.no_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该玩家未注册商店</t>
-  </si>
-  <si>
     <t>重新允许玩家使用商店</t>
   </si>
   <si>
@@ -2475,10 +2465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_lang.admin_settings.ban_player.no_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>g_lang.admin_settings.get_ban_state.no_input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2501,10 +2487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g_lang.common.no_register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>g_lang.admin_settings.reset_dynamic_data_tip.3</t>
   </si>
   <si>
@@ -2681,6 +2663,30 @@
   </si>
   <si>
     <t>g_lang.control.enter_edit.2</t>
+  </si>
+  <si>
+    <t>g_lang.inputter.cannot_input_space.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.inputter.cannot_input_space.2</t>
+  </si>
+  <si>
+    <t>输入有误，你输入了</t>
+  </si>
+  <si>
+    <t>请不要包含空格</t>
+  </si>
+  <si>
+    <t>你输入的金钱记分板不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店仍保持使用原先的金钱记分板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.admin_settings.money_sc.no_exist.3</t>
   </si>
 </sst>
 </file>
@@ -3016,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3041,13 +3047,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>85</v>
@@ -3272,7 +3278,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -3345,12 +3351,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>348</v>
@@ -3361,12 +3367,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>350</v>
@@ -3375,12 +3381,20 @@
         <v>349</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
       <c r="B35" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3412,7 +3426,7 @@
         <v>353</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3471,7 +3485,7 @@
         <v>366</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>358</v>
@@ -3528,7 +3542,7 @@
         <v>368</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>358</v>
@@ -3574,7 +3588,7 @@
         <v>375</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>102</v>
@@ -3623,10 +3637,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>380</v>
@@ -3637,10 +3651,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>382</v>
@@ -3651,65 +3665,79 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>384</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+    </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
       <c r="B67" s="3" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>382</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
       <c r="B68" s="3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>384</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>386</v>
@@ -3720,18 +3748,18 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>387</v>
@@ -3739,13 +3767,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>380</v>
@@ -3753,13 +3781,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>381</v>
@@ -3767,88 +3795,105 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>383</v>
       </c>
     </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+    </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
       <c r="B77" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
       <c r="B78" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
       <c r="B79" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>381</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
       <c r="B80" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>383</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>389</v>
@@ -3856,7 +3901,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>394</v>
@@ -3867,7 +3912,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>395</v>
@@ -3878,7 +3923,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>396</v>
@@ -3889,13 +3934,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>102</v>
@@ -3903,13 +3948,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>15</v>
@@ -3917,7 +3962,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>399</v>
@@ -3928,13 +3973,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>400</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>35</v>
@@ -3942,12 +3987,12 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>401</v>
@@ -3958,12 +4003,12 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>140</v>
@@ -3971,7 +4016,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>134</v>
@@ -3982,13 +4027,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>49</v>
@@ -3996,13 +4041,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>15</v>
@@ -4010,7 +4055,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>137</v>
@@ -4021,13 +4066,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>52</v>
@@ -4035,26 +4080,26 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>128</v>
@@ -4065,13 +4110,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>49</v>
@@ -4079,13 +4124,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>15</v>
@@ -4093,7 +4138,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>131</v>
@@ -4104,13 +4149,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>51</v>
@@ -4118,136 +4163,173 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
       <c r="B108" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D108" s="3" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="C110" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
       <c r="B111" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="C112" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
       <c r="B113" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D116" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
-        <v>653</v>
-      </c>
       <c r="D118" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>15</v>
@@ -4255,1350 +4337,1493 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
       <c r="B125" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="3" t="s">
-        <v>689</v>
-      </c>
       <c r="D129" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
-        <v>690</v>
-      </c>
       <c r="D131" s="3" t="s">
-        <v>688</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>691</v>
+        <v>404</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>667</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>99</v>
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>100</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>403</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>102</v>
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>103</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>408</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>105</v>
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>106</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>412</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>416</v>
+        <v>738</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>112</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>419</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>113</v>
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>114</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>422</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>115</v>
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>116</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D151" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B153" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>606</v>
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B155" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B159" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>682</v>
-      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
       <c r="B161" s="3" t="s">
-        <v>709</v>
+        <v>696</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>710</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
       <c r="B163" s="3" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B165" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B168" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B170" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>703</v>
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
       <c r="B172" s="3" t="s">
-        <v>705</v>
+        <v>83</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>704</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>141</v>
+        <v>65</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>120</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>122</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>123</v>
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>124</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>125</v>
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>126</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>127</v>
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>128</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>129</v>
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>130</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>131</v>
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>132</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>134</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>135</v>
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>136</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>137</v>
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>138</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>139</v>
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>140</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>141</v>
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>142</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>143</v>
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>147</v>
+        <v>577</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>146</v>
+        <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>147</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>148</v>
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>149</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>577</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>150</v>
+        <v>205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>154</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>583</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>155</v>
+        <v>210</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>157</v>
+        <v>212</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>158</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>587</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>160</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>588</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>161</v>
+        <v>216</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>162</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>592</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>163</v>
+        <v>218</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>164</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>595</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
       <c r="B222" s="3" t="s">
-        <v>614</v>
+        <v>89</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>613</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>165</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>167</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>168</v>
+        <v>225</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>170</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>551</v>
+        <v>104</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>173</v>
+        <v>230</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>176</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>564</v>
+        <v>326</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>178</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>179</v>
+        <v>236</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>180</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>181</v>
+        <v>238</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>182</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>183</v>
+        <v>240</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>120</v>
+        <v>321</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>119</v>
+        <v>582</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>185</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>582</v>
+        <v>323</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>583</v>
+        <v>324</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>324</v>
+        <v>552</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>191</v>
+        <v>248</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>192</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>554</v>
+        <v>334</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>553</v>
+        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>194</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>195</v>
+        <v>252</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>334</v>
+        <v>88</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>333</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>197</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>319</v>
+        <v>95</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>199</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>87</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>200</v>
+        <v>257</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>202</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>551</v>
+        <v>113</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>205</v>
+        <v>262</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>208</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>564</v>
+        <v>327</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>210</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>211</v>
+        <v>268</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>212</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>213</v>
+        <v>270</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>214</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>215</v>
+        <v>272</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>123</v>
+        <v>337</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>126</v>
+        <v>338</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>217</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>599</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>219</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>220</v>
+        <v>277</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>221</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>222</v>
+        <v>279</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>342</v>
+        <v>632</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>341</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
       <c r="B283" s="3" t="s">
         <v>634</v>
       </c>
+      <c r="D283" s="3" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B284" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>153</v>
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
       <c r="B286" s="3" t="s">
-        <v>635</v>
+        <v>735</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>636</v>
+        <v>737</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>224</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>143</v>
@@ -5606,7 +5831,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>145</v>
@@ -5617,12 +5842,12 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>227</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>150</v>
@@ -5630,7 +5855,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>152</v>
@@ -5641,40 +5866,40 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>230</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>15</v>
@@ -5682,86 +5907,89 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D299" s="3" t="s">
-        <v>610</v>
-      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
       <c r="B300" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>242</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>154</v>
@@ -5769,7 +5997,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>168</v>
@@ -5780,12 +6008,12 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>245</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>169</v>
@@ -5796,7 +6024,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>170</v>
@@ -5807,13 +6035,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>158</v>
@@ -5821,12 +6049,12 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>249</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>172</v>
@@ -5837,12 +6065,12 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>251</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>173</v>
@@ -5853,7 +6081,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>174</v>
@@ -5864,13 +6092,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>158</v>
@@ -5878,12 +6106,12 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>255</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>176</v>
@@ -5894,12 +6122,12 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>257</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>177</v>
@@ -5910,7 +6138,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>178</v>
@@ -5921,13 +6149,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>158</v>
@@ -5935,12 +6163,12 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>261</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>180</v>
@@ -5951,12 +6179,12 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>263</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>181</v>
@@ -5967,7 +6195,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>182</v>
@@ -5978,13 +6206,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>158</v>
@@ -5992,12 +6220,12 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>184</v>
@@ -6008,13 +6236,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>102</v>
@@ -6022,13 +6250,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>15</v>
@@ -6036,13 +6264,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>186</v>
@@ -6050,7 +6278,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>194</v>
@@ -6061,7 +6289,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>195</v>
@@ -6072,13 +6300,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>189</v>
@@ -6086,13 +6314,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>190</v>
@@ -6100,12 +6328,12 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>276</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>198</v>
@@ -6116,13 +6344,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>102</v>
@@ -6130,13 +6358,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>15</v>
@@ -6144,13 +6372,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>207</v>
@@ -6158,7 +6386,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>202</v>
@@ -6169,7 +6397,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>203</v>
@@ -6180,13 +6408,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>189</v>
@@ -6194,13 +6422,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>190</v>
@@ -6208,12 +6436,12 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>285</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>212</v>
@@ -6224,13 +6452,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>102</v>
@@ -6238,13 +6466,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>15</v>
@@ -6252,13 +6480,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>207</v>
@@ -6266,7 +6494,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>216</v>
@@ -6277,7 +6505,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>217</v>
@@ -6288,13 +6516,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>189</v>
@@ -6302,13 +6530,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>190</v>
@@ -6316,12 +6544,12 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>225</v>
@@ -6332,13 +6560,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>102</v>
@@ -6346,21 +6574,21 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>228</v>
@@ -6371,7 +6599,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>229</v>
@@ -6382,7 +6610,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>230</v>
@@ -6393,13 +6621,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>189</v>
@@ -6407,13 +6635,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>190</v>
@@ -6421,12 +6649,12 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>210</v>
@@ -6437,12 +6665,12 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>305</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>223</v>
@@ -6453,12 +6681,12 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>307</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>237</v>
@@ -6466,7 +6694,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>239</v>
@@ -6477,12 +6705,12 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>310</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>241</v>
@@ -6493,12 +6721,12 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>312</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>243</v>
@@ -6509,12 +6737,12 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>314</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>245</v>
@@ -6525,18 +6753,18 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>246</v>
@@ -6544,12 +6772,12 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>248</v>
@@ -6560,18 +6788,18 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>246</v>
@@ -6579,12 +6807,12 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>251</v>
@@ -6595,12 +6823,12 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>253</v>
@@ -6611,12 +6839,12 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>256</v>
@@ -6627,12 +6855,12 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>328</v>
+        <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>257</v>
@@ -6643,13 +6871,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>259</v>
@@ -6657,12 +6885,12 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>331</v>
+        <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>261</v>
@@ -6673,18 +6901,18 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>333</v>
+        <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>263</v>
@@ -6692,12 +6920,12 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>335</v>
+        <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>264</v>
@@ -6708,12 +6936,12 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>337</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>267</v>
@@ -6721,7 +6949,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>282</v>
@@ -6732,12 +6960,12 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>340</v>
+        <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>269</v>
@@ -6748,12 +6976,12 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>342</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>272</v>
@@ -6764,13 +6992,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>271</v>
@@ -6778,12 +7006,12 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>345</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>274</v>
@@ -6794,21 +7022,21 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>278</v>
@@ -6819,12 +7047,12 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>349</v>
+        <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>280</v>
@@ -6835,7 +7063,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>281</v>
@@ -6846,40 +7074,40 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>352</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>283</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>285</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>102</v>
@@ -6887,13 +7115,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>15</v>
@@ -6901,7 +7129,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>288</v>
@@ -6912,12 +7140,12 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>358</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>289</v>
@@ -6928,12 +7156,12 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>291</v>
@@ -6944,12 +7172,12 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>362</v>
+        <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>295</v>
@@ -6960,7 +7188,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>296</v>
@@ -6971,12 +7199,12 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>365</v>
+        <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>297</v>
@@ -6987,21 +7215,29 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>429</v>
+      </c>
+    </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>430</v>
+      </c>
       <c r="C431" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>153</v>
@@ -7009,20 +7245,20 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>368</v>
+        <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>301</v>
@@ -7033,12 +7269,12 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>371</v>
+        <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>302</v>
@@ -7049,20 +7285,20 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>373</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>304</v>
@@ -7073,12 +7309,12 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>376</v>
+        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>312</v>
@@ -7089,20 +7325,20 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>378</v>
+        <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>306</v>
@@ -7113,12 +7349,12 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>381</v>
+        <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>308</v>
@@ -7129,18 +7365,18 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>383</v>
+        <v>446</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>263</v>
@@ -7148,20 +7384,20 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>385</v>
+        <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>313</v>
@@ -7172,12 +7408,12 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>388</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>315</v>
@@ -7188,12 +7424,12 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>390</v>
+        <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>317</v>
@@ -7204,1080 +7440,1151 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>392</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D458" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>395</v>
+        <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>397</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>399</v>
+        <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>401</v>
+        <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>403</v>
+        <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>407</v>
+        <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
-        <v>409</v>
+        <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>411</v>
+        <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
-        <v>415</v>
+        <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
-        <v>417</v>
+        <v>480</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
-        <v>419</v>
+        <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D484" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
-        <v>421</v>
+        <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>423</v>
+        <v>486</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D488" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
-        <v>425</v>
+        <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
-        <v>427</v>
+        <v>490</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D493" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
-        <v>430</v>
+        <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
-        <v>432</v>
+        <v>495</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
-        <v>436</v>
+        <v>499</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>438</v>
+        <v>501</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
-        <v>442</v>
+        <v>505</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D509" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>510</v>
+      </c>
+      <c r="B511" s="3" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B511" s="3" t="s">
+      <c r="D511" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D511" s="3" t="s">
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>512</v>
+      </c>
+      <c r="B513" s="3" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B513" s="3" t="s">
+      <c r="D513" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="2">
+        <v>513</v>
+      </c>
+      <c r="B514" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D513" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B514" s="3" t="s">
+      <c r="D514" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D514" s="3" t="s">
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
+        <v>514</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="2">
+        <v>515</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D516" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B515" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D515" s="3" t="s">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>516</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D517" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B516" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B517" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>645</v>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="2">
+        <v>517</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D519" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
-        <v>448</v>
+        <v>519</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
-        <v>449</v>
+        <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>521</v>
+      </c>
       <c r="B522" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
-        <v>450</v>
+        <v>522</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
-        <v>452</v>
+        <v>524</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D526" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
-        <v>454</v>
+        <v>526</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
-        <v>455</v>
+        <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
-        <v>456</v>
+        <v>528</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
-        <v>457</v>
+        <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
-        <v>458</v>
+        <v>530</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
-        <v>460</v>
+        <v>532</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
-        <v>461</v>
+        <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
-        <v>465</v>
+        <v>537</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
-        <v>467</v>
+        <v>539</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
-        <v>469</v>
+        <v>541</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
-        <v>471</v>
+        <v>543</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
-        <v>473</v>
+        <v>545</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
-        <v>475</v>
+        <v>547</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
-        <v>477</v>
+        <v>549</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
-        <v>479</v>
+        <v>551</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
-        <v>481</v>
+        <v>553</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
-        <v>483</v>
+        <v>555</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
-        <v>485</v>
+        <v>557</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
-        <v>487</v>
+        <v>559</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
-        <v>489</v>
+        <v>561</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
-        <v>491</v>
+        <v>563</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D565" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="D565" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
-        <v>493</v>
+        <v>565</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
-        <v>495</v>
+        <v>567</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
-        <v>497</v>
+        <v>569</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
-        <v>499</v>
+        <v>571</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
-        <v>505</v>
+        <v>577</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
+        <v>579</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>580</v>
+      </c>
       <c r="B581" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" s="2">
+        <v>581</v>
+      </c>
+      <c r="B582" s="3" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B582" s="3" t="s">
+      <c r="D582" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D582" s="3" t="s">
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" s="2">
+        <v>582</v>
+      </c>
+      <c r="B583" s="3" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B583" s="3" t="s">
+      <c r="D583" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" s="2">
+        <v>583</v>
+      </c>
+      <c r="B584" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D583" s="3" t="s">
+      <c r="D584" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B584" s="3" t="s">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" s="2">
+        <v>584</v>
+      </c>
+      <c r="B585" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D584" s="3" t="s">
+      <c r="D585" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B585" s="3" t="s">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" s="2">
+        <v>585</v>
+      </c>
+      <c r="B586" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D585" s="3" t="s">
+      <c r="D586" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B586" s="3" t="s">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" s="2">
+        <v>586</v>
+      </c>
+      <c r="B587" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D586" s="3" t="s">
+      <c r="D587" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B587" s="3" t="s">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="2">
+        <v>587</v>
+      </c>
+      <c r="B588" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D587" s="3" t="s">
+      <c r="D588" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B588" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D588" s="3" t="s">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" s="2">
+        <v>588</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" s="2">
+        <v>589</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D590" s="3" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B589" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="D589" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B590" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D590" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -8308,7 +8615,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -8321,15 +8628,15 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -8337,7 +8644,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>53</v>
@@ -8345,7 +8652,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -8353,7 +8660,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>382</v>
@@ -8361,7 +8668,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -8369,7 +8676,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>102</v>
@@ -8377,7 +8684,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>380</v>
@@ -8385,7 +8692,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>158</v>
@@ -8393,7 +8700,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -8401,7 +8708,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>246</v>
@@ -8409,7 +8716,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>190</v>
@@ -8417,7 +8724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>324</v>
@@ -8425,7 +8732,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>271</v>
@@ -8433,7 +8740,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>263</v>
@@ -8441,7 +8748,7 @@
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -8449,7 +8756,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>189</v>
@@ -8457,7 +8764,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>358</v>
@@ -8465,7 +8772,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>384</v>
@@ -8473,7 +8780,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>186</v>
@@ -8481,15 +8788,15 @@
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>387</v>
@@ -8497,26 +8804,26 @@
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146F75D-8EC4-4481-91DE-6B84B5CEDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F38CC9-AB2D-4FFC-9BEE-542FCD9904C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H590"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/text/translate/zh_cn.xlsx
+++ b/text/translate/zh_cn.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC0695-BEA5-4667-AD68-D8000BAD3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162A5704-24A0-4DAB-8311-325940106027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="your_language" sheetId="3" r:id="rId1"/>
-    <sheet name="your_language_common" sheetId="4" r:id="rId2"/>
+    <sheet name="translation" sheetId="3" r:id="rId1"/>
+    <sheet name="common" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1985,9 +1985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">你的钱不够, 无法取钱。面值为 </t>
-  </si>
-  <si>
     <t>g_lang.cash.exchange.money_no_enough.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2668,6 +2665,10 @@
   </si>
   <si>
     <t>Current version not used</t>
+  </si>
+  <si>
+    <t>你的钱不够, 无法取钱。面值为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3028,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC84E5-621A-4D4C-80FE-0993A9D0C53C}">
   <dimension ref="A1:G588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3044,22 +3045,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3067,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3265,7 +3266,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3467,12 +3468,12 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3516,7 +3517,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3781,10 +3782,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>362</v>
@@ -3795,7 +3796,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>520</v>
@@ -3809,7 +3810,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>525</v>
@@ -3832,16 +3833,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3849,13 +3850,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>364</v>
@@ -3866,13 +3867,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>525</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>366</v>
@@ -3914,7 +3915,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>529</v>
@@ -3928,10 +3929,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>362</v>
@@ -3942,7 +3943,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>520</v>
@@ -3956,7 +3957,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>525</v>
@@ -3979,13 +3980,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>369</v>
@@ -3996,16 +3997,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4013,13 +4014,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>363</v>
@@ -4030,13 +4031,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>525</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>365</v>
@@ -4195,7 +4196,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4282,7 +4283,7 @@
       </c>
       <c r="D99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4369,7 +4370,7 @@
       </c>
       <c r="D106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4382,10 +4383,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,14 +4394,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,7 +4409,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>540</v>
@@ -4423,14 +4424,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D111" s="4"/>
       <c r="F111" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4438,7 +4439,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>519</v>
@@ -4453,10 +4454,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4469,10 +4470,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4480,10 +4481,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,10 +4492,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4502,10 +4503,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4513,14 +4514,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D119" s="4"/>
       <c r="F119" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4528,7 +4529,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>540</v>
@@ -4543,14 +4544,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D121" s="4"/>
       <c r="F121" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4558,7 +4559,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>519</v>
@@ -4573,14 +4574,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>532</v>
       </c>
       <c r="D123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,14 +4594,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4613,10 +4614,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4629,10 +4630,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4645,14 +4646,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4765,7 +4766,7 @@
         <v>399</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4776,7 +4777,7 @@
         <v>401</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4784,7 +4785,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>400</v>
@@ -4819,7 +4820,7 @@
         <v>507</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,10 +4833,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4848,10 +4849,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4864,10 +4865,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4880,10 +4881,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4896,10 +4897,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4907,7 +4908,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>540</v>
@@ -4922,10 +4923,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D162" s="4"/>
       <c r="F162" s="4" t="s">
@@ -4937,10 +4938,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4948,10 +4949,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -4964,10 +4965,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -4980,10 +4981,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -4996,7 +4997,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -5269,7 +5270,7 @@
         <v>552</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D203" s="4"/>
       <c r="F203" s="4" t="s">
@@ -5286,10 +5287,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>554</v>
+        <v>734</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5297,7 +5298,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>524</v>
@@ -5317,10 +5318,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5333,10 +5334,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,7 +5345,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>530</v>
@@ -5355,10 +5356,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5371,10 +5372,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5387,10 +5388,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5403,10 +5404,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,7 +5420,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5726,7 +5727,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -5916,7 +5917,7 @@
         <v>318</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -5976,7 +5977,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -5984,7 +5985,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>139</v>
@@ -6000,10 +6001,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F282" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -6016,10 +6017,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -6027,10 +6028,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -6043,7 +6044,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -6067,7 +6068,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -6105,7 +6106,7 @@
         <v>512</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -6131,7 +6132,7 @@
         <v>514</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D296" s="4"/>
       <c r="F296" s="4" t="s">
@@ -6143,10 +6144,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F297" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -6157,7 +6158,7 @@
         <v>515</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -6168,7 +6169,7 @@
         <v>516</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -6179,7 +6180,7 @@
         <v>517</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -6187,7 +6188,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>510</v>
@@ -6203,7 +6204,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -6923,7 +6924,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
@@ -7182,7 +7183,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -7460,7 +7461,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>528</v>
@@ -7481,7 +7482,7 @@
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D429" s="4"/>
       <c r="F429" s="4" t="s">
@@ -7498,7 +7499,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -7538,7 +7539,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -7578,7 +7579,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
@@ -7638,7 +7639,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -7694,7 +7695,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -7849,7 +7850,7 @@
         <v>420</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D474" s="4"/>
       <c r="F474" s="4" t="s">
@@ -7949,7 +7950,7 @@
         <v>551</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D486" s="4"/>
       <c r="F486" s="4" t="s">
@@ -7982,7 +7983,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
@@ -8121,7 +8122,7 @@
         <v>449</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -8134,10 +8135,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F509" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="F509" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -8150,10 +8151,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -8161,10 +8162,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F512" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="F512" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
@@ -8172,10 +8173,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -8183,10 +8184,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
@@ -8194,10 +8195,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -8226,10 +8227,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -8237,10 +8238,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -8272,7 +8273,7 @@
         <v>454</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D524" s="4"/>
       <c r="F524" s="4" t="s">
@@ -8389,7 +8390,7 @@
         <v>469</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D537" s="4"/>
       <c r="F537" s="4" t="s">
@@ -8505,7 +8506,7 @@
         <v>479</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
@@ -8537,7 +8538,7 @@
         <v>482</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.2">
@@ -8649,7 +8650,7 @@
         <v>496</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D569" s="4"/>
       <c r="F569" s="4" t="s">
@@ -8710,7 +8711,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>501</v>
@@ -8726,10 +8727,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
@@ -8742,7 +8743,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.2">
@@ -8750,10 +8751,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F580" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="F580" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.2">
@@ -8761,10 +8762,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.2">
@@ -8772,10 +8773,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
@@ -8783,10 +8784,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
@@ -8794,10 +8795,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
@@ -8805,10 +8806,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -8816,10 +8817,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
@@ -8827,10 +8828,10 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
@@ -8838,10 +8839,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -8872,16 +8873,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,7 +8890,7 @@
         <v>202</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
@@ -8901,7 +8902,7 @@
         <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
@@ -8929,7 +8930,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8985,7 +8986,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
@@ -8997,11 +8998,11 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -9057,11 +9058,11 @@
         <v>124</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -9141,11 +9142,11 @@
         <v>110</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -9165,7 +9166,7 @@
         <v>485</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
@@ -9201,7 +9202,7 @@
         <v>473</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
@@ -9225,7 +9226,7 @@
         <v>428</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5" t="s">
